--- a/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
+++ b/data/134/DEUSTATIS/Turnover in retail trade - 2004.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:04:36</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:41:29</t>
   </si>
 </sst>
 </file>
@@ -5701,7 +5701,7 @@
         <v>84.5</v>
       </c>
       <c r="BX11" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="BY11" t="n" s="10">
         <v>95.2</v>
@@ -5725,7 +5725,7 @@
         <v>92.3</v>
       </c>
       <c r="CF11" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CG11" t="n" s="10">
         <v>97.5</v>
@@ -5770,7 +5770,7 @@
         <v>111.9</v>
       </c>
       <c r="CU11" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CV11" t="n" s="10">
         <v>83.3</v>
@@ -5797,7 +5797,7 @@
         <v>93.1</v>
       </c>
       <c r="DD11" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DE11" t="n" s="10">
         <v>98.1</v>
@@ -5815,7 +5815,7 @@
         <v>96.8</v>
       </c>
       <c r="DJ11" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="DK11" t="n" s="10">
         <v>95.3</v>
@@ -5833,7 +5833,7 @@
         <v>93.3</v>
       </c>
       <c r="DP11" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DQ11" t="n" s="10">
         <v>100.0</v>
@@ -5842,13 +5842,13 @@
         <v>111.5</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="DT11" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DV11" t="n" s="10">
         <v>96.6</v>
@@ -5860,7 +5860,7 @@
         <v>95.1</v>
       </c>
       <c r="DY11" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="DZ11" t="n" s="10">
         <v>94.1</v>
@@ -6126,7 +6126,7 @@
         <v>94.2</v>
       </c>
       <c r="CF12" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="CG12" t="n" s="10">
         <v>94.1</v>
@@ -6162,7 +6162,7 @@
         <v>95.1</v>
       </c>
       <c r="CR12" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="CS12" t="n" s="10">
         <v>94.9</v>
@@ -6425,7 +6425,7 @@
         <v>95.1</v>
       </c>
       <c r="AX13" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="AY13" t="n" s="10">
         <v>96.2</v>
@@ -7709,7 +7709,7 @@
         <v>79.7</v>
       </c>
       <c r="BX16" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="BY16" t="n" s="10">
         <v>90.5</v>
@@ -7733,7 +7733,7 @@
         <v>87.8</v>
       </c>
       <c r="CF16" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="CG16" t="n" s="10">
         <v>93.1</v>
@@ -7778,7 +7778,7 @@
         <v>108.2</v>
       </c>
       <c r="CU16" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="CV16" t="n" s="10">
         <v>81.6</v>
@@ -7805,7 +7805,7 @@
         <v>92.2</v>
       </c>
       <c r="DD16" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DE16" t="n" s="10">
         <v>97.2</v>
@@ -7823,7 +7823,7 @@
         <v>96.7</v>
       </c>
       <c r="DJ16" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DK16" t="n" s="10">
         <v>95.6</v>
@@ -7841,7 +7841,7 @@
         <v>93.2</v>
       </c>
       <c r="DP16" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DQ16" t="n" s="10">
         <v>99.9</v>
@@ -7850,13 +7850,13 @@
         <v>111.0</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="DT16" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DV16" t="n" s="10">
         <v>97.3</v>
@@ -7868,7 +7868,7 @@
         <v>95.3</v>
       </c>
       <c r="DY16" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="DZ16" t="n" s="10">
         <v>94.0</v>
@@ -8134,7 +8134,7 @@
         <v>89.6</v>
       </c>
       <c r="CF17" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="CG17" t="n" s="10">
         <v>89.9</v>
@@ -8170,7 +8170,7 @@
         <v>92.2</v>
       </c>
       <c r="CR17" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="CS17" t="n" s="10">
         <v>92.3</v>
@@ -8298,7 +8298,7 @@
         <v>86.7</v>
       </c>
       <c r="E18" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="F18" t="n" s="10">
         <v>87.5</v>
@@ -8334,7 +8334,7 @@
         <v>88.3</v>
       </c>
       <c r="Q18" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="R18" t="n" s="10">
         <v>88.0</v>
@@ -8346,7 +8346,7 @@
         <v>88.4</v>
       </c>
       <c r="U18" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="V18" t="n" s="10">
         <v>89.3</v>
@@ -8370,7 +8370,7 @@
         <v>89.5</v>
       </c>
       <c r="AC18" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="AD18" t="n" s="10">
         <v>89.8</v>
@@ -8379,7 +8379,7 @@
         <v>90.5</v>
       </c>
       <c r="AF18" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="AG18" t="n" s="10">
         <v>89.9</v>
@@ -8421,7 +8421,7 @@
         <v>87.9</v>
       </c>
       <c r="AT18" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="AU18" t="n" s="10">
         <v>88.2</v>
@@ -8442,7 +8442,7 @@
         <v>91.8</v>
       </c>
       <c r="BA18" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="BB18" t="n" s="10">
         <v>88.9</v>
@@ -8451,7 +8451,7 @@
         <v>91.8</v>
       </c>
       <c r="BD18" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="BE18" t="n" s="10">
         <v>90.6</v>
@@ -8517,7 +8517,7 @@
         <v>90.6</v>
       </c>
       <c r="BZ18" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CA18" t="n" s="10">
         <v>88.7</v>
@@ -8526,7 +8526,7 @@
         <v>89.8</v>
       </c>
       <c r="CC18" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="CD18" t="n" s="10">
         <v>89.1</v>
@@ -8541,7 +8541,7 @@
         <v>90.3</v>
       </c>
       <c r="CH18" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="CI18" t="n" s="10">
         <v>90.4</v>
@@ -8568,7 +8568,7 @@
         <v>92.2</v>
       </c>
       <c r="CQ18" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="CR18" t="n" s="10">
         <v>92.5</v>
@@ -8592,7 +8592,7 @@
         <v>92.1</v>
       </c>
       <c r="CY18" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="CZ18" t="n" s="10">
         <v>94.9</v>
@@ -8604,7 +8604,7 @@
         <v>93.5</v>
       </c>
       <c r="DC18" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="DD18" t="n" s="10">
         <v>94.2</v>
@@ -8613,7 +8613,7 @@
         <v>93.9</v>
       </c>
       <c r="DF18" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DG18" t="n" s="10">
         <v>94.7</v>
@@ -8622,13 +8622,13 @@
         <v>93.7</v>
       </c>
       <c r="DI18" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DJ18" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="DK18" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="DL18" t="n" s="10">
         <v>94.5</v>
@@ -8673,7 +8673,7 @@
         <v>96.0</v>
       </c>
       <c r="DZ18" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="EA18" t="n" s="10">
         <v>96.8</v>
@@ -8729,13 +8729,13 @@
         <v>87.9</v>
       </c>
       <c r="O19" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="P19" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="Q19" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="R19" t="n" s="10">
         <v>88.6</v>
@@ -8792,7 +8792,7 @@
         <v>89.4</v>
       </c>
       <c r="AJ19" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="AK19" t="n" s="10">
         <v>89.1</v>
@@ -8948,7 +8948,7 @@
         <v>90.4</v>
       </c>
       <c r="CJ19" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="CK19" t="n" s="10">
         <v>90.8</v>
@@ -9011,13 +9011,13 @@
         <v>94.0</v>
       </c>
       <c r="DE19" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="DF19" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="DG19" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DH19" t="n" s="10">
         <v>94.5</v>
@@ -10311,16 +10311,16 @@
         <v>104.4</v>
       </c>
       <c r="E24" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="F24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="G24" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="H24" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>106.7</v>
@@ -10335,40 +10335,40 @@
         <v>105.6</v>
       </c>
       <c r="M24" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="N24" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="O24" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="P24" t="n" s="10">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="Q24" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="R24" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="S24" t="n" s="10">
         <v>107.6</v>
       </c>
       <c r="T24" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="U24" t="n" s="10">
         <v>106.0</v>
       </c>
       <c r="V24" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="W24" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="X24" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="Y24" t="n" s="10">
         <v>107.4</v>
@@ -10383,16 +10383,16 @@
         <v>106.5</v>
       </c>
       <c r="AC24" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AD24" t="n" s="10">
         <v>106.7</v>
       </c>
       <c r="AE24" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="AF24" t="n" s="10">
         <v>106.6</v>
-      </c>
-      <c r="AF24" t="n" s="10">
-        <v>106.5</v>
       </c>
       <c r="AG24" t="n" s="10">
         <v>106.8</v>
@@ -10422,13 +10422,13 @@
         <v>106.0</v>
       </c>
       <c r="AP24" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AQ24" t="n" s="10">
         <v>102.4</v>
       </c>
       <c r="AR24" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AS24" t="n" s="10">
         <v>101.4</v>
@@ -10437,16 +10437,16 @@
         <v>102.9</v>
       </c>
       <c r="AU24" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AV24" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AW24" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="AX24" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="AY24" t="n" s="10">
         <v>100.3</v>
@@ -10455,10 +10455,10 @@
         <v>102.3</v>
       </c>
       <c r="BA24" t="n" s="10">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="BB24" t="n" s="10">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="BC24" t="n" s="10">
         <v>100.7</v>
@@ -10470,16 +10470,16 @@
         <v>99.0</v>
       </c>
       <c r="BF24" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BG24" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BH24" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="BI24" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="BJ24" t="n" s="10">
         <v>98.4</v>
@@ -10491,10 +10491,10 @@
         <v>95.8</v>
       </c>
       <c r="BM24" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="BN24" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BO24" t="n" s="10">
         <v>97.1</v>
@@ -10503,7 +10503,7 @@
         <v>96.1</v>
       </c>
       <c r="BQ24" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="BR24" t="n" s="10">
         <v>97.1</v>
@@ -10521,7 +10521,7 @@
         <v>97.0</v>
       </c>
       <c r="BW24" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="BX24" t="n" s="10">
         <v>96.4</v>
@@ -10530,13 +10530,13 @@
         <v>99.1</v>
       </c>
       <c r="BZ24" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="CA24" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="CB24" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CC24" t="n" s="10">
         <v>98.1</v>
@@ -10548,19 +10548,19 @@
         <v>95.7</v>
       </c>
       <c r="CF24" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="CG24" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="CH24" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CI24" t="n" s="10">
         <v>96.2</v>
       </c>
       <c r="CJ24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CK24" t="n" s="10">
         <v>94.6</v>
@@ -10569,22 +10569,22 @@
         <v>100.0</v>
       </c>
       <c r="CM24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CN24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CO24" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="CP24" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CQ24" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="CR24" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CS24" t="n" s="10">
         <v>96.1</v>
@@ -10596,7 +10596,7 @@
         <v>95.8</v>
       </c>
       <c r="CV24" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="CW24" t="n" s="10">
         <v>96.8</v>
@@ -10614,19 +10614,19 @@
         <v>94.7</v>
       </c>
       <c r="DB24" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="DC24" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DD24" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DE24" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="DF24" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="DG24" t="n" s="10">
         <v>97.3</v>
@@ -10635,13 +10635,13 @@
         <v>96.4</v>
       </c>
       <c r="DI24" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="DJ24" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="DL24" t="n" s="10">
         <v>96.1</v>
@@ -10677,10 +10677,10 @@
         <v>100.4</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="DX24" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="DY24" t="n" s="10">
         <v>97.4</v>
@@ -10695,10 +10695,10 @@
         <v>98.7</v>
       </c>
       <c r="EC24" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="ED24" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="25">
@@ -10736,7 +10736,7 @@
         <v>105.8</v>
       </c>
       <c r="M25" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="N25" t="n" s="10">
         <v>106.3</v>
@@ -10766,7 +10766,7 @@
         <v>107.1</v>
       </c>
       <c r="W25" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="X25" t="n" s="10">
         <v>107.1</v>
@@ -10778,7 +10778,7 @@
         <v>107.0</v>
       </c>
       <c r="AA25" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AB25" t="n" s="10">
         <v>106.6</v>
@@ -10790,7 +10790,7 @@
         <v>106.2</v>
       </c>
       <c r="AE25" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="AF25" t="n" s="10">
         <v>105.9</v>
@@ -10814,7 +10814,7 @@
         <v>104.6</v>
       </c>
       <c r="AM25" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AN25" t="n" s="10">
         <v>104.1</v>
@@ -10829,10 +10829,10 @@
         <v>103.2</v>
       </c>
       <c r="AR25" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="AS25" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AT25" t="n" s="10">
         <v>102.3</v>
@@ -10847,7 +10847,7 @@
         <v>101.1</v>
       </c>
       <c r="AX25" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AY25" t="n" s="10">
         <v>100.4</v>
@@ -10889,7 +10889,7 @@
         <v>97.7</v>
       </c>
       <c r="BL25" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BM25" t="n" s="10">
         <v>97.2</v>
@@ -10943,19 +10943,19 @@
         <v>96.1</v>
       </c>
       <c r="CD25" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CE25" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="CF25" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="CG25" t="n" s="10">
         <v>96.2</v>
       </c>
-      <c r="CG25" t="n" s="10">
+      <c r="CH25" t="n" s="10">
         <v>96.3</v>
-      </c>
-      <c r="CH25" t="n" s="10">
-        <v>96.4</v>
       </c>
       <c r="CI25" t="n" s="10">
         <v>96.4</v>
@@ -10967,10 +10967,10 @@
         <v>96.6</v>
       </c>
       <c r="CL25" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CM25" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CN25" t="n" s="10">
         <v>96.6</v>
@@ -10991,7 +10991,7 @@
         <v>96.5</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="CU25" t="n" s="10">
         <v>96.4</v>
@@ -11003,7 +11003,7 @@
         <v>96.4</v>
       </c>
       <c r="CX25" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CY25" t="n" s="10">
         <v>96.4</v>
@@ -11018,7 +11018,7 @@
         <v>96.5</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DD25" t="n" s="10">
         <v>96.6</v>
@@ -11039,7 +11039,7 @@
         <v>96.9</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DK25" t="n" s="10">
         <v>97.0</v>
@@ -11066,10 +11066,10 @@
         <v>97.4</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DU25" t="n" s="10">
         <v>97.7</v>
@@ -11078,7 +11078,7 @@
         <v>97.8</v>
       </c>
       <c r="DW25" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX25" t="n" s="10">
         <v>98.0</v>
@@ -12328,7 +12328,7 @@
         <v>86.0</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="I29" t="n" s="10">
         <v>89.8</v>
@@ -12346,7 +12346,7 @@
         <v>89.5</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="O29" t="n" s="10">
         <v>88.9</v>
@@ -12355,7 +12355,7 @@
         <v>90.2</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="R29" t="n" s="10">
         <v>89.4</v>
@@ -12397,7 +12397,7 @@
         <v>90.7</v>
       </c>
       <c r="AE29" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="AF29" t="n" s="10">
         <v>91.2</v>
@@ -12466,7 +12466,7 @@
         <v>90.6</v>
       </c>
       <c r="BB29" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="BC29" t="n" s="10">
         <v>91.6</v>
@@ -12478,7 +12478,7 @@
         <v>90.2</v>
       </c>
       <c r="BF29" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="BG29" t="n" s="10">
         <v>91.1</v>
@@ -12508,7 +12508,7 @@
         <v>88.0</v>
       </c>
       <c r="BP29" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="BQ29" t="n" s="10">
         <v>87.2</v>
@@ -12529,7 +12529,7 @@
         <v>87.9</v>
       </c>
       <c r="BW29" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="BX29" t="n" s="10">
         <v>88.0</v>
@@ -12544,7 +12544,7 @@
         <v>87.4</v>
       </c>
       <c r="CB29" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="CC29" t="n" s="10">
         <v>90.1</v>
@@ -12595,10 +12595,10 @@
         <v>90.8</v>
       </c>
       <c r="CS29" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="CT29" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="CU29" t="n" s="10">
         <v>91.1</v>
@@ -12646,7 +12646,7 @@
         <v>96.7</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="DK29" t="n" s="10">
         <v>95.7</v>
@@ -12661,7 +12661,7 @@
         <v>97.1</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DP29" t="n" s="10">
         <v>96.2</v>
@@ -12688,7 +12688,7 @@
         <v>97.7</v>
       </c>
       <c r="DX29" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DY29" t="n" s="10">
         <v>97.0</v>
@@ -12861,7 +12861,7 @@
         <v>90.0</v>
       </c>
       <c r="AZ30" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="BA30" t="n" s="10">
         <v>90.3</v>
@@ -12933,7 +12933,7 @@
         <v>87.7</v>
       </c>
       <c r="BX30" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="BY30" t="n" s="10">
         <v>87.9</v>
@@ -12963,7 +12963,7 @@
         <v>88.9</v>
       </c>
       <c r="CH30" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="CI30" t="n" s="10">
         <v>89.3</v>
@@ -14482,7 +14482,7 @@
         <v>111.4</v>
       </c>
       <c r="BC35" t="n" s="10">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="BD35" t="n" s="10">
         <v>112.2</v>
@@ -14835,7 +14835,7 @@
         <v>121.3</v>
       </c>
       <c r="AM36" t="n" s="10">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="AN36" t="n" s="10">
         <v>120.1</v>
@@ -16364,7 +16364,7 @@
         <v>102.8</v>
       </c>
       <c r="M40" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="N40" t="n" s="10">
         <v>103.0</v>
@@ -16379,7 +16379,7 @@
         <v>103.8</v>
       </c>
       <c r="R40" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="S40" t="n" s="10">
         <v>103.2</v>
@@ -16403,7 +16403,7 @@
         <v>101.4</v>
       </c>
       <c r="Z40" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AA40" t="n" s="10">
         <v>102.0</v>
@@ -16421,7 +16421,7 @@
         <v>102.4</v>
       </c>
       <c r="AF40" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AG40" t="n" s="10">
         <v>104.3</v>
@@ -16804,7 +16804,7 @@
         <v>101.8</v>
       </c>
       <c r="Z41" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AA41" t="n" s="10">
         <v>101.9</v>
@@ -17080,7 +17080,7 @@
         <v>98.6</v>
       </c>
       <c r="DN41" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="DO41" t="n" s="10">
         <v>98.8</v>
@@ -17773,10 +17773,10 @@
         <v>97.4</v>
       </c>
       <c r="CA44" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CB44" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CC44" t="n" s="10">
         <v>106.2</v>
@@ -17788,10 +17788,10 @@
         <v>100.4</v>
       </c>
       <c r="CF44" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="CG44" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CH44" t="n" s="10">
         <v>91.0</v>
@@ -17809,13 +17809,13 @@
         <v>96.0</v>
       </c>
       <c r="CM44" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="CN44" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CO44" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="CP44" t="n" s="10">
         <v>101.7</v>
@@ -17866,7 +17866,7 @@
         <v>95.4</v>
       </c>
       <c r="DF44" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DG44" t="n" s="10">
         <v>89.4</v>
@@ -17878,13 +17878,13 @@
         <v>96.5</v>
       </c>
       <c r="DJ44" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="DK44" t="n" s="10">
         <v>102.9</v>
       </c>
       <c r="DL44" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="DM44" t="n" s="10">
         <v>105.1</v>
@@ -17908,7 +17908,7 @@
         <v>92.1</v>
       </c>
       <c r="DT44" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DU44" t="n" s="10">
         <v>97.8</v>
@@ -18168,7 +18168,7 @@
         <v>96.0</v>
       </c>
       <c r="BY45" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="BZ45" t="n" s="10">
         <v>97.2</v>
@@ -18180,10 +18180,10 @@
         <v>98.7</v>
       </c>
       <c r="CC45" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CD45" t="n" s="10">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="CE45" t="n" s="10">
         <v>98.2</v>
@@ -18213,13 +18213,13 @@
         <v>96.1</v>
       </c>
       <c r="CN45" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="CO45" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="CP45" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CQ45" t="n" s="10">
         <v>96.0</v>
@@ -18228,7 +18228,7 @@
         <v>97.5</v>
       </c>
       <c r="CS45" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CT45" t="n" s="10">
         <v>95.1</v>
@@ -18252,13 +18252,13 @@
         <v>97.4</v>
       </c>
       <c r="DA45" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DB45" t="n" s="10">
         <v>94.6</v>
       </c>
       <c r="DC45" t="n" s="10">
-        <v>94.4</v>
+        <v>94.2</v>
       </c>
       <c r="DD45" t="n" s="10">
         <v>95.0</v>
@@ -18279,7 +18279,7 @@
         <v>97.8</v>
       </c>
       <c r="DJ45" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DK45" t="n" s="10">
         <v>99.0</v>
@@ -18288,13 +18288,13 @@
         <v>100.7</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="DP45" t="n" s="10">
         <v>98.8</v>
@@ -18303,10 +18303,10 @@
         <v>100.1</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="DT45" t="n" s="10">
         <v>98.0</v>
@@ -18315,10 +18315,10 @@
         <v>99.0</v>
       </c>
       <c r="DV45" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DW45" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="DX45" t="n" s="10">
         <v>98.3</v>
@@ -18330,7 +18330,7 @@
         <v>97.8</v>
       </c>
       <c r="EA45" t="n" s="10">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="EB45" t="n" s="10">
         <v>100.8</v>
@@ -18339,7 +18339,7 @@
         <v>101.2</v>
       </c>
       <c r="ED45" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="46">
@@ -18353,7 +18353,7 @@
         <v>132.1</v>
       </c>
       <c r="E46" t="n" s="10">
-        <v>128.6</v>
+        <v>128.7</v>
       </c>
       <c r="F46" t="n" s="10">
         <v>128.8</v>
@@ -18458,10 +18458,10 @@
         <v>103.7</v>
       </c>
       <c r="AN46" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="AO46" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="AP46" t="n" s="10">
         <v>112.5</v>
@@ -18500,7 +18500,7 @@
         <v>106.9</v>
       </c>
       <c r="BB46" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="BC46" t="n" s="10">
         <v>106.1</v>
@@ -18542,7 +18542,7 @@
         <v>101.9</v>
       </c>
       <c r="BP46" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="BQ46" t="n" s="10">
         <v>99.8</v>
@@ -18563,7 +18563,7 @@
         <v>96.7</v>
       </c>
       <c r="BW46" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="BX46" t="n" s="10">
         <v>96.8</v>
@@ -18644,7 +18644,7 @@
         <v>96.1</v>
       </c>
       <c r="CX46" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="CY46" t="n" s="10">
         <v>95.7</v>
@@ -18677,7 +18677,7 @@
         <v>96.4</v>
       </c>
       <c r="DI46" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DJ46" t="n" s="10">
         <v>99.8</v>
@@ -18722,7 +18722,7 @@
         <v>97.6</v>
       </c>
       <c r="DX46" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="DY46" t="n" s="10">
         <v>99.1</v>
@@ -18775,13 +18775,13 @@
         <v>125.5</v>
       </c>
       <c r="L47" t="n" s="10">
-        <v>124.3</v>
+        <v>124.4</v>
       </c>
       <c r="M47" t="n" s="10">
         <v>123.0</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>121.5</v>
+        <v>121.6</v>
       </c>
       <c r="O47" t="n" s="10">
         <v>120.0</v>
@@ -18799,7 +18799,7 @@
         <v>114.1</v>
       </c>
       <c r="T47" t="n" s="10">
-        <v>112.9</v>
+        <v>113.0</v>
       </c>
       <c r="U47" t="n" s="10">
         <v>111.9</v>
@@ -18871,7 +18871,7 @@
         <v>110.4</v>
       </c>
       <c r="AR47" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="AS47" t="n" s="10">
         <v>109.6</v>
@@ -18985,7 +18985,7 @@
         <v>97.5</v>
       </c>
       <c r="CD47" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CE47" t="n" s="10">
         <v>97.3</v>
@@ -19781,10 +19781,10 @@
         <v>98.1</v>
       </c>
       <c r="CA49" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="CB49" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CC49" t="n" s="10">
         <v>105.2</v>
@@ -19796,10 +19796,10 @@
         <v>99.1</v>
       </c>
       <c r="CF49" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CG49" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="CH49" t="n" s="10">
         <v>93.8</v>
@@ -19817,13 +19817,13 @@
         <v>106.4</v>
       </c>
       <c r="CM49" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="CN49" t="n" s="10">
         <v>106.9</v>
       </c>
       <c r="CO49" t="n" s="10">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="CP49" t="n" s="10">
         <v>109.9</v>
@@ -19874,7 +19874,7 @@
         <v>107.6</v>
       </c>
       <c r="DF49" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="DG49" t="n" s="10">
         <v>99.3</v>
@@ -19886,13 +19886,13 @@
         <v>106.4</v>
       </c>
       <c r="DJ49" t="n" s="10">
-        <v>112.0</v>
+        <v>112.1</v>
       </c>
       <c r="DK49" t="n" s="10">
         <v>114.3</v>
       </c>
       <c r="DL49" t="n" s="10">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="DM49" t="n" s="10">
         <v>118.9</v>
@@ -19916,7 +19916,7 @@
         <v>99.3</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DU49" t="n" s="10">
         <v>105.9</v>
@@ -20176,7 +20176,7 @@
         <v>93.4</v>
       </c>
       <c r="BY50" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="BZ50" t="n" s="10">
         <v>95.7</v>
@@ -20188,10 +20188,10 @@
         <v>97.0</v>
       </c>
       <c r="CC50" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="CD50" t="n" s="10">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="CE50" t="n" s="10">
         <v>96.3</v>
@@ -20221,13 +20221,13 @@
         <v>104.4</v>
       </c>
       <c r="CN50" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="CO50" t="n" s="10">
         <v>103.4</v>
       </c>
       <c r="CP50" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="CQ50" t="n" s="10">
         <v>105.0</v>
@@ -20236,7 +20236,7 @@
         <v>107.6</v>
       </c>
       <c r="CS50" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="CT50" t="n" s="10">
         <v>105.4</v>
@@ -20260,13 +20260,13 @@
         <v>107.4</v>
       </c>
       <c r="DA50" t="n" s="10">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="DB50" t="n" s="10">
         <v>109.6</v>
       </c>
       <c r="DC50" t="n" s="10">
-        <v>111.1</v>
+        <v>110.9</v>
       </c>
       <c r="DD50" t="n" s="10">
         <v>109.8</v>
@@ -20287,7 +20287,7 @@
         <v>107.9</v>
       </c>
       <c r="DJ50" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="DK50" t="n" s="10">
         <v>109.0</v>
@@ -20296,13 +20296,13 @@
         <v>110.5</v>
       </c>
       <c r="DM50" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="DN50" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="DO50" t="n" s="10">
-        <v>112.4</v>
+        <v>112.0</v>
       </c>
       <c r="DP50" t="n" s="10">
         <v>109.0</v>
@@ -20311,10 +20311,10 @@
         <v>109.5</v>
       </c>
       <c r="DR50" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="DT50" t="n" s="10">
         <v>108.5</v>
@@ -20323,10 +20323,10 @@
         <v>107.9</v>
       </c>
       <c r="DV50" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="DW50" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="DX50" t="n" s="10">
         <v>107.4</v>
@@ -20338,7 +20338,7 @@
         <v>106.1</v>
       </c>
       <c r="EA50" t="n" s="10">
-        <v>106.6</v>
+        <v>106.2</v>
       </c>
       <c r="EB50" t="n" s="10">
         <v>108.4</v>
@@ -20347,7 +20347,7 @@
         <v>106.7</v>
       </c>
       <c r="ED50" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="51">
@@ -20361,7 +20361,7 @@
         <v>100.2</v>
       </c>
       <c r="E51" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="F51" t="n" s="10">
         <v>99.8</v>
@@ -20400,10 +20400,10 @@
         <v>99.8</v>
       </c>
       <c r="R51" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="S51" t="n" s="10">
         <v>98.3</v>
-      </c>
-      <c r="S51" t="n" s="10">
-        <v>98.4</v>
       </c>
       <c r="T51" t="n" s="10">
         <v>98.6</v>
@@ -20433,16 +20433,16 @@
         <v>104.2</v>
       </c>
       <c r="AC51" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AD51" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="AE51" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AF51" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="AG51" t="n" s="10">
         <v>107.3</v>
@@ -20466,13 +20466,13 @@
         <v>94.2</v>
       </c>
       <c r="AN51" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AO51" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="AP51" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AQ51" t="n" s="10">
         <v>101.2</v>
@@ -20487,7 +20487,7 @@
         <v>102.7</v>
       </c>
       <c r="AU51" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AV51" t="n" s="10">
         <v>104.6</v>
@@ -20505,10 +20505,10 @@
         <v>109.6</v>
       </c>
       <c r="BA51" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="BB51" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="BC51" t="n" s="10">
         <v>109.3</v>
@@ -20520,7 +20520,7 @@
         <v>114.3</v>
       </c>
       <c r="BF51" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="BG51" t="n" s="10">
         <v>104.2</v>
@@ -20532,7 +20532,7 @@
         <v>98.7</v>
       </c>
       <c r="BJ51" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="BK51" t="n" s="10">
         <v>92.7</v>
@@ -20541,7 +20541,7 @@
         <v>91.7</v>
       </c>
       <c r="BM51" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="BN51" t="n" s="10">
         <v>91.1</v>
@@ -20550,10 +20550,10 @@
         <v>88.4</v>
       </c>
       <c r="BP51" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="BQ51" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BR51" t="n" s="10">
         <v>91.7</v>
@@ -20571,7 +20571,7 @@
         <v>93.6</v>
       </c>
       <c r="BW51" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="BX51" t="n" s="10">
         <v>93.8</v>
@@ -20592,10 +20592,10 @@
         <v>98.6</v>
       </c>
       <c r="CD51" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="CE51" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="CF51" t="n" s="10">
         <v>98.0</v>
@@ -20604,7 +20604,7 @@
         <v>98.3</v>
       </c>
       <c r="CH51" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="CI51" t="n" s="10">
         <v>102.2</v>
@@ -20613,7 +20613,7 @@
         <v>102.4</v>
       </c>
       <c r="CK51" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CL51" t="n" s="10">
         <v>103.6</v>
@@ -20643,7 +20643,7 @@
         <v>106.6</v>
       </c>
       <c r="CU51" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="CV51" t="n" s="10">
         <v>108.8</v>
@@ -20673,7 +20673,7 @@
         <v>109.6</v>
       </c>
       <c r="DE51" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="DF51" t="n" s="10">
         <v>109.6</v>
@@ -20685,7 +20685,7 @@
         <v>109.2</v>
       </c>
       <c r="DI51" t="n" s="10">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="DJ51" t="n" s="10">
         <v>111.1</v>
@@ -20718,7 +20718,7 @@
         <v>110.1</v>
       </c>
       <c r="DT51" t="n" s="10">
-        <v>109.0</v>
+        <v>108.9</v>
       </c>
       <c r="DU51" t="n" s="10">
         <v>108.9</v>
@@ -20730,7 +20730,7 @@
         <v>106.3</v>
       </c>
       <c r="DX51" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="DY51" t="n" s="10">
         <v>106.6</v>
@@ -20771,7 +20771,7 @@
         <v>99.9</v>
       </c>
       <c r="H52" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>100.4</v>
@@ -20804,7 +20804,7 @@
         <v>99.3</v>
       </c>
       <c r="S52" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="T52" t="n" s="10">
         <v>99.4</v>
@@ -20816,7 +20816,7 @@
         <v>100.0</v>
       </c>
       <c r="W52" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="X52" t="n" s="10">
         <v>101.0</v>
@@ -20834,7 +20834,7 @@
         <v>103.2</v>
       </c>
       <c r="AC52" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AD52" t="n" s="10">
         <v>103.6</v>
@@ -20867,10 +20867,10 @@
         <v>102.4</v>
       </c>
       <c r="AN52" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AO52" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="AP52" t="n" s="10">
         <v>102.0</v>
@@ -20945,7 +20945,7 @@
         <v>91.8</v>
       </c>
       <c r="BN52" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="BO52" t="n" s="10">
         <v>90.0</v>
@@ -20984,13 +20984,13 @@
         <v>95.2</v>
       </c>
       <c r="CA52" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="CB52" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="CC52" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CD52" t="n" s="10">
         <v>97.5</v>
@@ -21008,13 +21008,13 @@
         <v>100.1</v>
       </c>
       <c r="CI52" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="CJ52" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="CK52" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CL52" t="n" s="10">
         <v>103.0</v>
@@ -21038,7 +21038,7 @@
         <v>106.7</v>
       </c>
       <c r="CS52" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="CT52" t="n" s="10">
         <v>107.4</v>
@@ -21050,7 +21050,7 @@
         <v>108.2</v>
       </c>
       <c r="CW52" t="n" s="10">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="CX52" t="n" s="10">
         <v>108.8</v>
@@ -21080,7 +21080,7 @@
         <v>109.5</v>
       </c>
       <c r="DG52" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="DH52" t="n" s="10">
         <v>109.8</v>
@@ -21140,7 +21140,7 @@
         <v>106.1</v>
       </c>
       <c r="EA52" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="EB52" t="n" s="10">
         <v>105.2</v>
@@ -21149,7 +21149,7 @@
         <v>104.6</v>
       </c>
       <c r="ED52" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="53" ht="33.75" customHeight="true">
@@ -21809,7 +21809,7 @@
         <v>74.7</v>
       </c>
       <c r="CF55" t="n" s="10">
-        <v>79.9</v>
+        <v>80.4</v>
       </c>
       <c r="CG55" t="n" s="10">
         <v>87.9</v>
@@ -21827,7 +21827,7 @@
         <v>76.5</v>
       </c>
       <c r="CL55" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="CM55" t="n" s="10">
         <v>73.4</v>
@@ -21845,7 +21845,7 @@
         <v>82.8</v>
       </c>
       <c r="CR55" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="CS55" t="n" s="10">
         <v>97.0</v>
@@ -21905,7 +21905,7 @@
         <v>80.1</v>
       </c>
       <c r="DL55" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="DM55" t="n" s="10">
         <v>83.2</v>
@@ -21917,7 +21917,7 @@
         <v>93.0</v>
       </c>
       <c r="DP55" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DQ55" t="n" s="10">
         <v>104.9</v>
@@ -21953,7 +21953,7 @@
         <v>95.5</v>
       </c>
       <c r="EB55" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="EC55" t="n" s="10">
         <v>113.8</v>
@@ -22198,7 +22198,7 @@
         <v>85.0</v>
       </c>
       <c r="CB56" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="CC56" t="n" s="10">
         <v>77.8</v>
@@ -22210,10 +22210,10 @@
         <v>79.1</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>78.0</v>
+        <v>78.4</v>
       </c>
       <c r="CG56" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="CH56" t="n" s="10">
         <v>79.8</v>
@@ -22264,7 +22264,7 @@
         <v>92.6</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="CY56" t="n" s="10">
         <v>91.2</v>
@@ -22282,7 +22282,7 @@
         <v>90.3</v>
       </c>
       <c r="DD56" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="DE56" t="n" s="10">
         <v>91.6</v>
@@ -22306,7 +22306,7 @@
         <v>93.1</v>
       </c>
       <c r="DL56" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DM56" t="n" s="10">
         <v>88.5</v>
@@ -22339,7 +22339,7 @@
         <v>95.1</v>
       </c>
       <c r="DW56" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="DX56" t="n" s="10">
         <v>94.3</v>
@@ -22351,10 +22351,10 @@
         <v>94.3</v>
       </c>
       <c r="EA56" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="EB56" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="EC56" t="n" s="10">
         <v>100.2</v>
@@ -22374,10 +22374,10 @@
         <v>33.6</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="G57" t="n" s="10">
         <v>35.2</v>
@@ -22398,7 +22398,7 @@
         <v>36.8</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="N57" t="n" s="10">
         <v>36.2</v>
@@ -22437,7 +22437,7 @@
         <v>43.1</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="AA57" t="n" s="10">
         <v>44.6</v>
@@ -22449,7 +22449,7 @@
         <v>43.0</v>
       </c>
       <c r="AD57" t="n" s="10">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="AE57" t="n" s="10">
         <v>45.8</v>
@@ -22521,7 +22521,7 @@
         <v>66.7</v>
       </c>
       <c r="BB57" t="n" s="10">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="BC57" t="n" s="10">
         <v>68.8</v>
@@ -22545,7 +22545,7 @@
         <v>70.8</v>
       </c>
       <c r="BJ57" t="n" s="10">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="BK57" t="n" s="10">
         <v>72.9</v>
@@ -22590,130 +22590,130 @@
         <v>76.8</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="BZ57" t="n" s="10">
         <v>77.2</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="CB57" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="CC57" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="CD57" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="CE57" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="CF57" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="CG57" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>80.6</v>
+        <v>79.6</v>
       </c>
       <c r="CI57" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CJ57" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="CK57" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="CL57" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="CM57" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CN57" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="CO57" t="n" s="10">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CR57" t="n" s="10">
-        <v>88.8</v>
+        <v>89.0</v>
       </c>
       <c r="CS57" t="n" s="10">
+        <v>88.7</v>
+      </c>
+      <c r="CT57" t="n" s="10">
+        <v>92.1</v>
+      </c>
+      <c r="CU57" t="n" s="10">
         <v>88.5</v>
       </c>
-      <c r="CT57" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="CU57" t="n" s="10">
-        <v>88.3</v>
-      </c>
       <c r="CV57" t="n" s="10">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="CW57" t="n" s="10">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="CX57" t="n" s="10">
-        <v>92.0</v>
+        <v>92.2</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="CZ57" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DA57" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DB57" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="DC57" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="DD57" t="n" s="10">
         <v>91.3</v>
       </c>
       <c r="DE57" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="DF57" t="n" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="DG57" t="n" s="10">
         <v>92.2</v>
       </c>
-      <c r="DF57" t="n" s="10">
-        <v>93.4</v>
-      </c>
-      <c r="DG57" t="n" s="10">
-        <v>92.1</v>
-      </c>
       <c r="DH57" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="DJ57" t="n" s="10">
+        <v>91.9</v>
+      </c>
+      <c r="DK57" t="n" s="10">
         <v>91.8</v>
       </c>
-      <c r="DK57" t="n" s="10">
+      <c r="DL57" t="n" s="10">
         <v>91.7</v>
       </c>
-      <c r="DL57" t="n" s="10">
-        <v>91.6</v>
-      </c>
       <c r="DM57" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DO57" t="n" s="10">
         <v>94.6</v>
@@ -22722,10 +22722,10 @@
         <v>93.1</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="DR57" t="n" s="10">
-        <v>92.0</v>
+        <v>91.5</v>
       </c>
       <c r="DS57" t="n" s="10">
         <v>93.6</v>
@@ -22737,31 +22737,31 @@
         <v>91.2</v>
       </c>
       <c r="DV57" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="DW57" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="DY57" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DZ57" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="EA57" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="EB57" t="n" s="10">
-        <v>98.8</v>
+        <v>99.0</v>
       </c>
       <c r="EC57" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="ED57" t="n" s="10">
-        <v>100.6</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="58">
@@ -22796,10 +22796,10 @@
         <v>36.2</v>
       </c>
       <c r="L58" t="n" s="10">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="M58" t="n" s="10">
-        <v>37.1</v>
+        <v>37.0</v>
       </c>
       <c r="N58" t="n" s="10">
         <v>37.5</v>
@@ -22829,7 +22829,7 @@
         <v>42.4</v>
       </c>
       <c r="W58" t="n" s="10">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="X58" t="n" s="10">
         <v>43.2</v>
@@ -23018,64 +23018,64 @@
         <v>80.8</v>
       </c>
       <c r="CH58" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="CI58" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="CJ58" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="CK58" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CM58" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="CO58" t="n" s="10">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="CP58" t="n" s="10">
-        <v>86.8</v>
+        <v>87.1</v>
       </c>
       <c r="CQ58" t="n" s="10">
-        <v>87.6</v>
+        <v>87.9</v>
       </c>
       <c r="CR58" t="n" s="10">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="CS58" t="n" s="10">
-        <v>88.8</v>
+        <v>89.3</v>
       </c>
       <c r="CT58" t="n" s="10">
-        <v>89.4</v>
+        <v>89.8</v>
       </c>
       <c r="CU58" t="n" s="10">
-        <v>89.8</v>
+        <v>90.3</v>
       </c>
       <c r="CV58" t="n" s="10">
-        <v>90.2</v>
+        <v>90.6</v>
       </c>
       <c r="CW58" t="n" s="10">
-        <v>90.7</v>
+        <v>91.0</v>
       </c>
       <c r="CX58" t="n" s="10">
-        <v>91.1</v>
+        <v>91.3</v>
       </c>
       <c r="CY58" t="n" s="10">
-        <v>91.4</v>
+        <v>91.6</v>
       </c>
       <c r="CZ58" t="n" s="10">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="DA58" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="DB58" t="n" s="10">
         <v>92.0</v>
@@ -23087,10 +23087,10 @@
         <v>92.1</v>
       </c>
       <c r="DE58" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>92.1</v>
@@ -23126,10 +23126,10 @@
         <v>93.0</v>
       </c>
       <c r="DR58" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DT58" t="n" s="10">
         <v>93.6</v>
@@ -23144,25 +23144,25 @@
         <v>95.4</v>
       </c>
       <c r="DX58" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="DY58" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DZ58" t="n" s="10">
-        <v>97.0</v>
+        <v>97.2</v>
       </c>
       <c r="EA58" t="n" s="10">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="EB58" t="n" s="10">
-        <v>98.1</v>
+        <v>98.3</v>
       </c>
       <c r="EC58" t="n" s="10">
-        <v>98.4</v>
+        <v>98.6</v>
       </c>
       <c r="ED58" t="n" s="10">
-        <v>98.7</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="59">
@@ -23817,7 +23817,7 @@
         <v>99.6</v>
       </c>
       <c r="CF60" t="n" s="10">
-        <v>105.5</v>
+        <v>106.1</v>
       </c>
       <c r="CG60" t="n" s="10">
         <v>114.9</v>
@@ -23835,7 +23835,7 @@
         <v>95.7</v>
       </c>
       <c r="CL60" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CM60" t="n" s="10">
         <v>89.7</v>
@@ -23853,7 +23853,7 @@
         <v>98.0</v>
       </c>
       <c r="CR60" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="CS60" t="n" s="10">
         <v>113.3</v>
@@ -23877,7 +23877,7 @@
         <v>90.3</v>
       </c>
       <c r="CZ60" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DA60" t="n" s="10">
         <v>97.2</v>
@@ -23889,7 +23889,7 @@
         <v>97.7</v>
       </c>
       <c r="DD60" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="DE60" t="n" s="10">
         <v>113.5</v>
@@ -23913,7 +23913,7 @@
         <v>87.1</v>
       </c>
       <c r="DL60" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="DM60" t="n" s="10">
         <v>89.6</v>
@@ -23925,7 +23925,7 @@
         <v>98.0</v>
       </c>
       <c r="DP60" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="DQ60" t="n" s="10">
         <v>111.2</v>
@@ -23961,7 +23961,7 @@
         <v>96.1</v>
       </c>
       <c r="EB60" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="EC60" t="n" s="10">
         <v>114.6</v>
@@ -24206,7 +24206,7 @@
         <v>112.5</v>
       </c>
       <c r="CB61" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="CC61" t="n" s="10">
         <v>104.6</v>
@@ -24218,10 +24218,10 @@
         <v>105.5</v>
       </c>
       <c r="CF61" t="n" s="10">
-        <v>103.2</v>
+        <v>103.7</v>
       </c>
       <c r="CG61" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="CH61" t="n" s="10">
         <v>102.9</v>
@@ -24254,7 +24254,7 @@
         <v>103.4</v>
       </c>
       <c r="CR61" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="CS61" t="n" s="10">
         <v>101.4</v>
@@ -24272,7 +24272,7 @@
         <v>106.4</v>
       </c>
       <c r="CX61" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="CY61" t="n" s="10">
         <v>105.0</v>
@@ -24290,7 +24290,7 @@
         <v>102.6</v>
       </c>
       <c r="DD61" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="DE61" t="n" s="10">
         <v>101.1</v>
@@ -24314,7 +24314,7 @@
         <v>101.2</v>
       </c>
       <c r="DL61" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="DM61" t="n" s="10">
         <v>95.6</v>
@@ -24347,7 +24347,7 @@
         <v>98.3</v>
       </c>
       <c r="DW61" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="DX61" t="n" s="10">
         <v>97.4</v>
@@ -24359,10 +24359,10 @@
         <v>96.0</v>
       </c>
       <c r="EA61" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="EB61" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="EC61" t="n" s="10">
         <v>100.8</v>
@@ -24376,25 +24376,25 @@
         <v>35</v>
       </c>
       <c r="C62" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="D62" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="E62" t="n" s="10">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="F62" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="G62" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="H62" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="I62" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="J62" t="n" s="10">
         <v>80.7</v>
@@ -24421,22 +24421,22 @@
         <v>86.2</v>
       </c>
       <c r="R62" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="S62" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="T62" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="U62" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="V62" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="W62" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="X62" t="n" s="10">
         <v>87.6</v>
@@ -24454,7 +24454,7 @@
         <v>85.9</v>
       </c>
       <c r="AC62" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AD62" t="n" s="10">
         <v>88.6</v>
@@ -24481,13 +24481,13 @@
         <v>92.2</v>
       </c>
       <c r="AL62" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="AM62" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="AN62" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="AO62" t="n" s="10">
         <v>95.1</v>
@@ -24499,7 +24499,7 @@
         <v>93.6</v>
       </c>
       <c r="AR62" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="AS62" t="n" s="10">
         <v>99.7</v>
@@ -24508,13 +24508,13 @@
         <v>94.9</v>
       </c>
       <c r="AU62" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="AV62" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AW62" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="AX62" t="n" s="10">
         <v>99.6</v>
@@ -24523,13 +24523,13 @@
         <v>98.5</v>
       </c>
       <c r="AZ62" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="BA62" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="BB62" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="BC62" t="n" s="10">
         <v>103.0</v>
@@ -24541,7 +24541,7 @@
         <v>99.1</v>
       </c>
       <c r="BF62" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="BG62" t="n" s="10">
         <v>101.1</v>
@@ -24559,13 +24559,13 @@
         <v>104.0</v>
       </c>
       <c r="BL62" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="BM62" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="BN62" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BO62" t="n" s="10">
         <v>98.3</v>
@@ -24583,7 +24583,7 @@
         <v>101.8</v>
       </c>
       <c r="BT62" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="BU62" t="n" s="10">
         <v>103.7</v>
@@ -24604,7 +24604,7 @@
         <v>103.6</v>
       </c>
       <c r="CA62" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="CB62" t="n" s="10">
         <v>106.7</v>
@@ -24622,10 +24622,10 @@
         <v>105.2</v>
       </c>
       <c r="CG62" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="CH62" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="CI62" t="n" s="10">
         <v>108.0</v>
@@ -24634,40 +24634,40 @@
         <v>104.5</v>
       </c>
       <c r="CK62" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CL62" t="n" s="10">
         <v>103.7</v>
       </c>
       <c r="CM62" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="CN62" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CO62" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="CP62" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="CQ62" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="CR62" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="CS62" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="CT62" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="CU62" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="CV62" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="CW62" t="n" s="10">
         <v>105.7</v>
@@ -24679,7 +24679,7 @@
         <v>104.0</v>
       </c>
       <c r="CZ62" t="n" s="10">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="DA62" t="n" s="10">
         <v>104.2</v>
@@ -24688,16 +24688,16 @@
         <v>102.6</v>
       </c>
       <c r="DC62" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="DD62" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="DE62" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="DF62" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="DG62" t="n" s="10">
         <v>101.6</v>
@@ -24712,7 +24712,7 @@
         <v>100.5</v>
       </c>
       <c r="DK62" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="DL62" t="n" s="10">
         <v>98.8</v>
@@ -24751,7 +24751,7 @@
         <v>101.2</v>
       </c>
       <c r="DX62" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DY62" t="n" s="10">
         <v>100.6</v>
@@ -24777,7 +24777,7 @@
         <v>36</v>
       </c>
       <c r="C63" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="D63" t="n" s="10">
         <v>78.1</v>
@@ -24816,13 +24816,13 @@
         <v>83.5</v>
       </c>
       <c r="P63" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="Q63" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="R63" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="S63" t="n" s="10">
         <v>85.8</v>
@@ -24837,10 +24837,10 @@
         <v>87.3</v>
       </c>
       <c r="W63" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="X63" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="Y63" t="n" s="10">
         <v>87.2</v>
@@ -24915,7 +24915,7 @@
         <v>98.0</v>
       </c>
       <c r="AW63" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="AX63" t="n" s="10">
         <v>99.0</v>
@@ -24960,7 +24960,7 @@
         <v>101.0</v>
       </c>
       <c r="BL63" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="BM63" t="n" s="10">
         <v>100.8</v>
@@ -24975,7 +24975,7 @@
         <v>100.9</v>
       </c>
       <c r="BQ63" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="BR63" t="n" s="10">
         <v>101.2</v>
@@ -25029,16 +25029,16 @@
         <v>104.7</v>
       </c>
       <c r="CI63" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="CJ63" t="n" s="10">
         <v>104.2</v>
       </c>
       <c r="CK63" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="CL63" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="CM63" t="n" s="10">
         <v>103.4</v>
@@ -25143,10 +25143,10 @@
         <v>98.1</v>
       </c>
       <c r="DU63" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DV63" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DW63" t="n" s="10">
         <v>98.8</v>
@@ -26395,7 +26395,7 @@
         <v>107.3</v>
       </c>
       <c r="E68" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="F68" t="n" s="10">
         <v>106.9</v>
@@ -26422,7 +26422,7 @@
         <v>106.3</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="O68" t="n" s="10">
         <v>105.3</v>
@@ -26437,7 +26437,7 @@
         <v>104.6</v>
       </c>
       <c r="S68" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="T68" t="n" s="10">
         <v>104.4</v>
@@ -26449,7 +26449,7 @@
         <v>105.3</v>
       </c>
       <c r="W68" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="X68" t="n" s="10">
         <v>105.0</v>
@@ -26503,7 +26503,7 @@
         <v>105.5</v>
       </c>
       <c r="AO68" t="n" s="10">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="AP68" t="n" s="10">
         <v>105.3</v>
@@ -26527,7 +26527,7 @@
         <v>103.6</v>
       </c>
       <c r="AW68" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AX68" t="n" s="10">
         <v>104.5</v>
@@ -26578,7 +26578,7 @@
         <v>96.6</v>
       </c>
       <c r="BN68" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="BO68" t="n" s="10">
         <v>97.3</v>
@@ -26653,7 +26653,7 @@
         <v>104.5</v>
       </c>
       <c r="CM68" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="CN68" t="n" s="10">
         <v>100.8</v>
@@ -26668,7 +26668,7 @@
         <v>102.5</v>
       </c>
       <c r="CR68" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="CS68" t="n" s="10">
         <v>102.9</v>
@@ -26722,7 +26722,7 @@
         <v>97.9</v>
       </c>
       <c r="DJ68" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="DK68" t="n" s="10">
         <v>101.4</v>
@@ -26761,7 +26761,7 @@
         <v>98.9</v>
       </c>
       <c r="DW68" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="DX68" t="n" s="10">
         <v>97.2</v>
@@ -26829,7 +26829,7 @@
         <v>105.3</v>
       </c>
       <c r="P69" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="Q69" t="n" s="10">
         <v>105.0</v>
@@ -26934,7 +26934,7 @@
         <v>104.5</v>
       </c>
       <c r="AY69" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AZ69" t="n" s="10">
         <v>104.7</v>
@@ -26973,7 +26973,7 @@
         <v>100.3</v>
       </c>
       <c r="BL69" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BM69" t="n" s="10">
         <v>99.2</v>
@@ -27021,7 +27021,7 @@
         <v>99.4</v>
       </c>
       <c r="CB69" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="CC69" t="n" s="10">
         <v>99.9</v>
@@ -27030,7 +27030,7 @@
         <v>100.1</v>
       </c>
       <c r="CE69" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="CF69" t="n" s="10">
         <v>100.4</v>
@@ -27168,7 +27168,7 @@
         <v>98.3</v>
       </c>
       <c r="DY69" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DZ69" t="n" s="10">
         <v>98.5</v>
@@ -28397,22 +28397,22 @@
         <v>35</v>
       </c>
       <c r="C73" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D73" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="E73" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="F73" t="n" s="10">
         <v>98.0</v>
-      </c>
-      <c r="F73" t="n" s="10">
-        <v>97.9</v>
       </c>
       <c r="G73" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="H73" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="I73" t="n" s="10">
         <v>98.4</v>
@@ -28421,46 +28421,46 @@
         <v>96.5</v>
       </c>
       <c r="K73" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="L73" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="M73" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="N73" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="O73" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="P73" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="Q73" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="R73" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="S73" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="T73" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="U73" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="V73" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="W73" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="X73" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="Y73" t="n" s="10">
         <v>94.5</v>
@@ -28472,19 +28472,19 @@
         <v>97.8</v>
       </c>
       <c r="AB73" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="AC73" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AD73" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="AE73" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="AF73" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="AG73" t="n" s="10">
         <v>97.5</v>
@@ -28493,7 +28493,7 @@
         <v>99.0</v>
       </c>
       <c r="AI73" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AJ73" t="n" s="10">
         <v>99.4</v>
@@ -28511,10 +28511,10 @@
         <v>96.1</v>
       </c>
       <c r="AO73" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="AP73" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="AQ73" t="n" s="10">
         <v>93.2</v>
@@ -28526,31 +28526,31 @@
         <v>95.4</v>
       </c>
       <c r="AT73" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="AU73" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="AV73" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="AW73" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="AX73" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AY73" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="AZ73" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="BA73" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="BB73" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="BC73" t="n" s="10">
         <v>98.7</v>
@@ -28586,19 +28586,19 @@
         <v>91.6</v>
       </c>
       <c r="BN73" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BO73" t="n" s="10">
         <v>92.8</v>
       </c>
       <c r="BP73" t="n" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="BQ73" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="BR73" t="n" s="10">
         <v>93.4</v>
-      </c>
-      <c r="BQ73" t="n" s="10">
-        <v>93.2</v>
-      </c>
-      <c r="BR73" t="n" s="10">
-        <v>93.3</v>
       </c>
       <c r="BS73" t="n" s="10">
         <v>94.0</v>
@@ -28613,7 +28613,7 @@
         <v>94.3</v>
       </c>
       <c r="BW73" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="BX73" t="n" s="10">
         <v>94.0</v>
@@ -28628,7 +28628,7 @@
         <v>96.3</v>
       </c>
       <c r="CB73" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CC73" t="n" s="10">
         <v>96.9</v>
@@ -28643,10 +28643,10 @@
         <v>97.0</v>
       </c>
       <c r="CG73" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CH73" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="CI73" t="n" s="10">
         <v>98.1</v>
@@ -28655,22 +28655,22 @@
         <v>99.1</v>
       </c>
       <c r="CK73" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CL73" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CM73" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="CN73" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CO73" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="CP73" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="CQ73" t="n" s="10">
         <v>99.6</v>
@@ -28682,10 +28682,10 @@
         <v>100.1</v>
       </c>
       <c r="CT73" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="CU73" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="CV73" t="n" s="10">
         <v>99.7</v>
@@ -28700,25 +28700,25 @@
         <v>99.8</v>
       </c>
       <c r="CZ73" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="DA73" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="DB73" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DC73" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="DD73" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="DE73" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="DF73" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="DG73" t="n" s="10">
         <v>99.4</v>
@@ -28733,7 +28733,7 @@
         <v>99.0</v>
       </c>
       <c r="DK73" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DL73" t="n" s="10">
         <v>99.0</v>
@@ -28772,7 +28772,7 @@
         <v>96.7</v>
       </c>
       <c r="DX73" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DY73" t="n" s="10">
         <v>96.6</v>
@@ -28787,7 +28787,7 @@
         <v>98.3</v>
       </c>
       <c r="EC73" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="ED73" t="n" s="10">
         <v>98.6</v>
@@ -28843,7 +28843,7 @@
         <v>96.4</v>
       </c>
       <c r="R74" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="S74" t="n" s="10">
         <v>96.3</v>
@@ -28852,7 +28852,7 @@
         <v>96.3</v>
       </c>
       <c r="U74" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="V74" t="n" s="10">
         <v>96.2</v>
@@ -28906,7 +28906,7 @@
         <v>98.1</v>
       </c>
       <c r="AM74" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="AN74" t="n" s="10">
         <v>97.2</v>
@@ -28987,7 +28987,7 @@
         <v>94.0</v>
       </c>
       <c r="BN74" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="BO74" t="n" s="10">
         <v>93.6</v>
@@ -29020,7 +29020,7 @@
         <v>94.6</v>
       </c>
       <c r="BY74" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="BZ74" t="n" s="10">
         <v>95.1</v>
@@ -29035,7 +29035,7 @@
         <v>96.0</v>
       </c>
       <c r="CD74" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CE74" t="n" s="10">
         <v>96.5</v>
@@ -29050,7 +29050,7 @@
         <v>97.1</v>
       </c>
       <c r="CI74" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CJ74" t="n" s="10">
         <v>97.6</v>
@@ -29068,7 +29068,7 @@
         <v>98.8</v>
       </c>
       <c r="CO74" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CP74" t="n" s="10">
         <v>99.5</v>
@@ -29083,7 +29083,7 @@
         <v>100.2</v>
       </c>
       <c r="CT74" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="CU74" t="n" s="10">
         <v>100.5</v>
@@ -29092,7 +29092,7 @@
         <v>100.6</v>
       </c>
       <c r="CW74" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="CX74" t="n" s="10">
         <v>100.8</v>
@@ -29110,16 +29110,16 @@
         <v>100.6</v>
       </c>
       <c r="DC74" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="DD74" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="DE74" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="DF74" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="DG74" t="n" s="10">
         <v>99.6</v>
@@ -29131,7 +29131,7 @@
         <v>99.0</v>
       </c>
       <c r="DJ74" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DK74" t="n" s="10">
         <v>98.8</v>
@@ -29182,10 +29182,10 @@
         <v>97.8</v>
       </c>
       <c r="EA74" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="EB74" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="EC74" t="n" s="10">
         <v>98.4</v>
@@ -30491,7 +30491,7 @@
         <v>78.3</v>
       </c>
       <c r="AD79" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="AE79" t="n" s="10">
         <v>77.4</v>
@@ -30560,13 +30560,13 @@
         <v>73.1</v>
       </c>
       <c r="BA79" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="BB79" t="n" s="10">
         <v>73.1</v>
       </c>
       <c r="BC79" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="BD79" t="n" s="10">
         <v>70.5</v>
@@ -30587,7 +30587,7 @@
         <v>76.7</v>
       </c>
       <c r="BJ79" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BK79" t="n" s="10">
         <v>71.7</v>
@@ -30605,7 +30605,7 @@
         <v>68.9</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>65.2</v>
@@ -30734,7 +30734,7 @@
         <v>77.2</v>
       </c>
       <c r="DG79" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="DH79" t="n" s="10">
         <v>74.8</v>
@@ -30749,7 +30749,7 @@
         <v>78.7</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="DM79" t="n" s="10">
         <v>77.2</v>
@@ -30761,49 +30761,49 @@
         <v>78.4</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>79.2</v>
+        <v>79.4</v>
       </c>
       <c r="DT79" t="n" s="10">
-        <v>79.2</v>
+        <v>79.4</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="DV79" t="n" s="10">
+        <v>79.9</v>
+      </c>
+      <c r="DW79" t="n" s="10">
+        <v>77.6</v>
+      </c>
+      <c r="DX79" t="n" s="10">
+        <v>80.0</v>
+      </c>
+      <c r="DY79" t="n" s="10">
+        <v>79.4</v>
+      </c>
+      <c r="DZ79" t="n" s="10">
         <v>81.8</v>
       </c>
-      <c r="DW79" t="n" s="10">
-        <v>77.4</v>
-      </c>
-      <c r="DX79" t="n" s="10">
-        <v>79.8</v>
-      </c>
-      <c r="DY79" t="n" s="10">
-        <v>79.1</v>
-      </c>
-      <c r="DZ79" t="n" s="10">
-        <v>81.5</v>
-      </c>
       <c r="EA79" t="n" s="10">
-        <v>80.8</v>
+        <v>81.1</v>
       </c>
       <c r="EB79" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="EC79" t="n" s="10">
         <v>82.5</v>
       </c>
-      <c r="EC79" t="n" s="10">
-        <v>82.0</v>
-      </c>
       <c r="ED79" t="n" s="10">
-        <v>82.2</v>
+        <v>81.1</v>
       </c>
     </row>
     <row r="80">
@@ -30904,7 +30904,7 @@
         <v>77.2</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="AI80" t="n" s="10">
         <v>76.3</v>
@@ -30934,7 +30934,7 @@
         <v>71.1</v>
       </c>
       <c r="AR80" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="AS80" t="n" s="10">
         <v>70.5</v>
@@ -31108,7 +31108,7 @@
         <v>70.9</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="CY80" t="n" s="10">
         <v>71.5</v>
@@ -31129,7 +31129,7 @@
         <v>74.5</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>75.6</v>
@@ -31177,34 +31177,34 @@
         <v>79.1</v>
       </c>
       <c r="DU80" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="DV80" t="n" s="10">
         <v>79.3</v>
       </c>
-      <c r="DV80" t="n" s="10">
+      <c r="DW80" t="n" s="10">
         <v>79.5</v>
       </c>
-      <c r="DW80" t="n" s="10">
-        <v>79.6</v>
-      </c>
       <c r="DX80" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DY80" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>82.4</v>
+        <v>82.7</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>83.5</v>
+        <v>84.0</v>
       </c>
       <c r="ED80" t="n" s="10">
-        <v>85.0</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="81">
@@ -32424,7 +32424,7 @@
         <v>69.1</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="F84" t="n" s="10">
         <v>69.0</v>
@@ -32433,10 +32433,10 @@
         <v>68.5</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="J84" t="n" s="10">
         <v>68.6</v>
@@ -32451,7 +32451,7 @@
         <v>70.3</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>68.9</v>
+        <v>68.8</v>
       </c>
       <c r="O84" t="n" s="10">
         <v>73.9</v>
@@ -32460,28 +32460,28 @@
         <v>72.3</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="T84" t="n" s="10">
         <v>71.3</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="V84" t="n" s="10">
         <v>76.5</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="Y84" t="n" s="10">
         <v>75.7</v>
@@ -32499,13 +32499,13 @@
         <v>75.9</v>
       </c>
       <c r="AD84" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AE84" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="AG84" t="n" s="10">
         <v>74.7</v>
@@ -32523,7 +32523,7 @@
         <v>72.5</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>66.4</v>
@@ -32532,10 +32532,10 @@
         <v>67.3</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>66.6</v>
+        <v>66.5</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>67.2</v>
+        <v>67.3</v>
       </c>
       <c r="AQ84" t="n" s="10">
         <v>66.9</v>
@@ -32547,10 +32547,10 @@
         <v>65.1</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>64.6</v>
+        <v>64.5</v>
       </c>
       <c r="AU84" t="n" s="10">
-        <v>64.6</v>
+        <v>64.7</v>
       </c>
       <c r="AV84" t="n" s="10">
         <v>66.0</v>
@@ -32565,13 +32565,13 @@
         <v>74.2</v>
       </c>
       <c r="AZ84" t="n" s="10">
-        <v>73.2</v>
+        <v>73.1</v>
       </c>
       <c r="BA84" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BC84" t="n" s="10">
         <v>73.7</v>
@@ -32580,13 +32580,13 @@
         <v>72.6</v>
       </c>
       <c r="BE84" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="BF84" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BG84" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="BH84" t="n" s="10">
         <v>76.6</v>
@@ -32604,10 +32604,10 @@
         <v>67.7</v>
       </c>
       <c r="BM84" t="n" s="10">
-        <v>67.6</v>
+        <v>67.5</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="BO84" t="n" s="10">
         <v>64.1</v>
@@ -32625,7 +32625,7 @@
         <v>59.6</v>
       </c>
       <c r="BT84" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="BU84" t="n" s="10">
         <v>59.0</v>
@@ -32634,7 +32634,7 @@
         <v>60.8</v>
       </c>
       <c r="BW84" t="n" s="10">
-        <v>63.2</v>
+        <v>63.3</v>
       </c>
       <c r="BX84" t="n" s="10">
         <v>63.5</v>
@@ -32643,13 +32643,13 @@
         <v>64.7</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>64.1</v>
+        <v>64.0</v>
       </c>
       <c r="CA84" t="n" s="10">
         <v>66.3</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="CC84" t="n" s="10">
         <v>66.3</v>
@@ -32667,7 +32667,7 @@
         <v>68.1</v>
       </c>
       <c r="CH84" t="n" s="10">
-        <v>67.9</v>
+        <v>67.8</v>
       </c>
       <c r="CI84" t="n" s="10">
         <v>68.1</v>
@@ -32682,19 +32682,19 @@
         <v>69.3</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>68.5</v>
+        <v>68.4</v>
       </c>
       <c r="CN84" t="n" s="10">
-        <v>68.9</v>
+        <v>69.0</v>
       </c>
       <c r="CO84" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="CP84" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>73.9</v>
@@ -32703,7 +32703,7 @@
         <v>73.2</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>73.4</v>
@@ -32715,7 +32715,7 @@
         <v>74.0</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="CY84" t="n" s="10">
         <v>76.2</v>
@@ -32739,7 +32739,7 @@
         <v>79.8</v>
       </c>
       <c r="DF84" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="DG84" t="n" s="10">
         <v>81.3</v>
@@ -32754,13 +32754,13 @@
         <v>83.8</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DN84" t="n" s="10">
         <v>82.3</v>
@@ -32769,49 +32769,49 @@
         <v>82.3</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="DQ84" t="n" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="DR84" t="n" s="10">
         <v>83.3</v>
       </c>
-      <c r="DR84" t="n" s="10">
-        <v>83.2</v>
-      </c>
       <c r="DS84" t="n" s="10">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="DT84" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="DU84" t="n" s="10">
+        <v>84.2</v>
+      </c>
+      <c r="DV84" t="n" s="10">
+        <v>83.1</v>
+      </c>
+      <c r="DW84" t="n" s="10">
+        <v>80.8</v>
+      </c>
+      <c r="DX84" t="n" s="10">
         <v>82.8</v>
       </c>
-      <c r="DU84" t="n" s="10">
+      <c r="DY84" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="DZ84" t="n" s="10">
+        <v>84.6</v>
+      </c>
+      <c r="EA84" t="n" s="10">
         <v>84.0</v>
       </c>
-      <c r="DV84" t="n" s="10">
-        <v>85.1</v>
-      </c>
-      <c r="DW84" t="n" s="10">
-        <v>80.7</v>
-      </c>
-      <c r="DX84" t="n" s="10">
-        <v>82.6</v>
-      </c>
-      <c r="DY84" t="n" s="10">
-        <v>82.2</v>
-      </c>
-      <c r="DZ84" t="n" s="10">
-        <v>84.4</v>
-      </c>
-      <c r="EA84" t="n" s="10">
-        <v>83.8</v>
-      </c>
       <c r="EB84" t="n" s="10">
-        <v>84.7</v>
+        <v>85.0</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>83.8</v>
+        <v>84.1</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="85">
@@ -32861,13 +32861,13 @@
         <v>71.6</v>
       </c>
       <c r="Q85" t="n" s="10">
-        <v>72.2</v>
+        <v>72.1</v>
       </c>
       <c r="R85" t="n" s="10">
         <v>72.7</v>
       </c>
       <c r="S85" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="T85" t="n" s="10">
         <v>73.7</v>
@@ -32891,7 +32891,7 @@
         <v>75.3</v>
       </c>
       <c r="AA85" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="AB85" t="n" s="10">
         <v>75.6</v>
@@ -32912,7 +32912,7 @@
         <v>74.4</v>
       </c>
       <c r="AH85" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="AI85" t="n" s="10">
         <v>73.0</v>
@@ -32996,7 +32996,7 @@
         <v>73.8</v>
       </c>
       <c r="BJ85" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="BK85" t="n" s="10">
         <v>70.9</v>
@@ -33005,13 +33005,13 @@
         <v>69.2</v>
       </c>
       <c r="BM85" t="n" s="10">
-        <v>67.5</v>
+        <v>67.6</v>
       </c>
       <c r="BN85" t="n" s="10">
-        <v>65.8</v>
+        <v>65.9</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="BP85" t="n" s="10">
         <v>62.9</v>
@@ -33059,7 +33059,7 @@
         <v>66.3</v>
       </c>
       <c r="CE85" t="n" s="10">
-        <v>66.7</v>
+        <v>66.6</v>
       </c>
       <c r="CF85" t="n" s="10">
         <v>67.0</v>
@@ -33071,13 +33071,13 @@
         <v>67.7</v>
       </c>
       <c r="CI85" t="n" s="10">
-        <v>68.1</v>
+        <v>68.0</v>
       </c>
       <c r="CJ85" t="n" s="10">
         <v>68.5</v>
       </c>
       <c r="CK85" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="CL85" t="n" s="10">
         <v>69.4</v>
@@ -33104,7 +33104,7 @@
         <v>73.3</v>
       </c>
       <c r="CT85" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="CU85" t="n" s="10">
         <v>74.2</v>
@@ -33158,10 +33158,10 @@
         <v>82.1</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="DM85" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="DN85" t="n" s="10">
         <v>82.4</v>
@@ -33188,31 +33188,31 @@
         <v>82.8</v>
       </c>
       <c r="DV85" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="DW85" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>83.0</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="EA85" t="n" s="10">
-        <v>83.7</v>
+        <v>84.0</v>
       </c>
       <c r="EB85" t="n" s="10">
-        <v>84.4</v>
+        <v>84.8</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>85.2</v>
+        <v>85.7</v>
       </c>
       <c r="ED85" t="n" s="10">
-        <v>86.4</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="86" ht="33.75" customHeight="true">
@@ -34497,7 +34497,7 @@
         <v>93.9</v>
       </c>
       <c r="Y90" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="Z90" t="n" s="10">
         <v>94.5</v>
@@ -34512,7 +34512,7 @@
         <v>93.9</v>
       </c>
       <c r="AD90" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="AE90" t="n" s="10">
         <v>95.6</v>
@@ -34689,7 +34689,7 @@
         <v>91.9</v>
       </c>
       <c r="CK90" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="CL90" t="n" s="10">
         <v>92.8</v>
@@ -36454,7 +36454,7 @@
         <v>84.6</v>
       </c>
       <c r="H95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="I95" t="n" s="10">
         <v>86.1</v>
@@ -36469,7 +36469,7 @@
         <v>85.8</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="N95" t="n" s="10">
         <v>85.8</v>
@@ -36481,16 +36481,16 @@
         <v>86.5</v>
       </c>
       <c r="Q95" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="R95" t="n" s="10">
         <v>86.3</v>
       </c>
       <c r="S95" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="T95" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="U95" t="n" s="10">
         <v>87.2</v>
@@ -36523,10 +36523,10 @@
         <v>89.7</v>
       </c>
       <c r="AE95" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>89.3</v>
@@ -36544,7 +36544,7 @@
         <v>90.6</v>
       </c>
       <c r="AL95" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AM95" t="n" s="10">
         <v>86.2</v>
@@ -36562,7 +36562,7 @@
         <v>86.7</v>
       </c>
       <c r="AR95" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="AS95" t="n" s="10">
         <v>87.6</v>
@@ -36571,7 +36571,7 @@
         <v>87.8</v>
       </c>
       <c r="AU95" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="AV95" t="n" s="10">
         <v>88.1</v>
@@ -36592,16 +36592,16 @@
         <v>87.7</v>
       </c>
       <c r="BB95" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="BC95" t="n" s="10">
         <v>88.4</v>
       </c>
       <c r="BD95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="BE95" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="BF95" t="n" s="10">
         <v>87.0</v>
@@ -36613,7 +36613,7 @@
         <v>86.2</v>
       </c>
       <c r="BI95" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="BJ95" t="n" s="10">
         <v>85.8</v>
@@ -36625,7 +36625,7 @@
         <v>86.4</v>
       </c>
       <c r="BM95" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="BN95" t="n" s="10">
         <v>87.6</v>
@@ -36658,7 +36658,7 @@
         <v>83.6</v>
       </c>
       <c r="BX95" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="BY95" t="n" s="10">
         <v>84.7</v>
@@ -36667,7 +36667,7 @@
         <v>82.6</v>
       </c>
       <c r="CA95" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="CB95" t="n" s="10">
         <v>85.6</v>
@@ -36676,7 +36676,7 @@
         <v>86.1</v>
       </c>
       <c r="CD95" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CE95" t="n" s="10">
         <v>86.1</v>
@@ -36697,13 +36697,13 @@
         <v>88.6</v>
       </c>
       <c r="CK95" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CL95" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="CM95" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CN95" t="n" s="10">
         <v>87.6</v>
@@ -36715,7 +36715,7 @@
         <v>89.0</v>
       </c>
       <c r="CQ95" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="CR95" t="n" s="10">
         <v>90.0</v>
@@ -36760,7 +36760,7 @@
         <v>90.3</v>
       </c>
       <c r="DF95" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="DG95" t="n" s="10">
         <v>90.5</v>
@@ -36775,7 +36775,7 @@
         <v>90.3</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="DL95" t="n" s="10">
         <v>90.7</v>
@@ -36790,7 +36790,7 @@
         <v>91.4</v>
       </c>
       <c r="DP95" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DQ95" t="n" s="10">
         <v>93.1</v>
@@ -36805,7 +36805,7 @@
         <v>92.9</v>
       </c>
       <c r="DU95" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DV95" t="n" s="10">
         <v>93.2</v>
@@ -36829,7 +36829,7 @@
         <v>93.9</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="ED95" t="n" s="10">
         <v>95.1</v>
@@ -36873,7 +36873,7 @@
         <v>86.0</v>
       </c>
       <c r="N96" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="O96" t="n" s="10">
         <v>86.3</v>
@@ -36891,10 +36891,10 @@
         <v>87.0</v>
       </c>
       <c r="T96" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="U96" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="V96" t="n" s="10">
         <v>87.4</v>
@@ -37071,7 +37071,7 @@
         <v>84.4</v>
       </c>
       <c r="CB96" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="CC96" t="n" s="10">
         <v>85.3</v>
@@ -37095,7 +37095,7 @@
         <v>87.3</v>
       </c>
       <c r="CJ96" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="CK96" t="n" s="10">
         <v>87.8</v>
@@ -37113,7 +37113,7 @@
         <v>88.8</v>
       </c>
       <c r="CP96" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="CQ96" t="n" s="10">
         <v>89.5</v>
@@ -37158,7 +37158,7 @@
         <v>90.6</v>
       </c>
       <c r="DE96" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="DF96" t="n" s="10">
         <v>90.5</v>
@@ -37206,13 +37206,13 @@
         <v>92.3</v>
       </c>
       <c r="DU96" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DV96" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="DW96" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="DX96" t="n" s="10">
         <v>92.7</v>
@@ -38563,7 +38563,7 @@
         <v>103.5</v>
       </c>
       <c r="AN101" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AO101" t="n" s="10">
         <v>104.7</v>
@@ -38587,7 +38587,7 @@
         <v>99.4</v>
       </c>
       <c r="AV101" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="AW101" t="n" s="10">
         <v>100.6</v>
@@ -38638,7 +38638,7 @@
         <v>94.9</v>
       </c>
       <c r="BM101" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BN101" t="n" s="10">
         <v>98.9</v>
@@ -38728,7 +38728,7 @@
         <v>95.8</v>
       </c>
       <c r="CQ101" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CR101" t="n" s="10">
         <v>95.4</v>
@@ -38740,7 +38740,7 @@
         <v>96.2</v>
       </c>
       <c r="CU101" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="CV101" t="n" s="10">
         <v>97.0</v>
@@ -38761,7 +38761,7 @@
         <v>94.3</v>
       </c>
       <c r="DB101" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DC101" t="n" s="10">
         <v>96.4</v>
@@ -38773,7 +38773,7 @@
         <v>96.5</v>
       </c>
       <c r="DF101" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="DG101" t="n" s="10">
         <v>97.1</v>
@@ -38824,7 +38824,7 @@
         <v>100.2</v>
       </c>
       <c r="DW101" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="DX101" t="n" s="10">
         <v>98.0</v>
@@ -38976,7 +38976,7 @@
         <v>101.9</v>
       </c>
       <c r="AR102" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AS102" t="n" s="10">
         <v>101.3</v>
@@ -39102,7 +39102,7 @@
         <v>95.5</v>
       </c>
       <c r="CH102" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="CI102" t="n" s="10">
         <v>95.6</v>
@@ -40466,13 +40466,13 @@
         <v>84.5</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="G106" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="H106" t="n" s="10">
         <v>85.1</v>
@@ -40502,16 +40502,16 @@
         <v>87.6</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="S106" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="U106" t="n" s="10">
         <v>86.5</v>
@@ -40520,7 +40520,7 @@
         <v>88.0</v>
       </c>
       <c r="W106" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="X106" t="n" s="10">
         <v>88.3</v>
@@ -40532,7 +40532,7 @@
         <v>88.1</v>
       </c>
       <c r="AA106" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="AB106" t="n" s="10">
         <v>88.0</v>
@@ -40541,10 +40541,10 @@
         <v>86.5</v>
       </c>
       <c r="AD106" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="AE106" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="AF106" t="n" s="10">
         <v>89.0</v>
@@ -40565,7 +40565,7 @@
         <v>87.2</v>
       </c>
       <c r="AL106" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="AM106" t="n" s="10">
         <v>88.1</v>
@@ -40574,7 +40574,7 @@
         <v>87.1</v>
       </c>
       <c r="AO106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="AP106" t="n" s="10">
         <v>87.8</v>
@@ -40586,7 +40586,7 @@
         <v>88.1</v>
       </c>
       <c r="AS106" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="AT106" t="n" s="10">
         <v>88.0</v>
@@ -40598,10 +40598,10 @@
         <v>88.5</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="AX106" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="AY106" t="n" s="10">
         <v>88.1</v>
@@ -40610,16 +40610,16 @@
         <v>90.1</v>
       </c>
       <c r="BA106" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="BB106" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="BC106" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>88.5</v>
@@ -40682,7 +40682,7 @@
         <v>86.8</v>
       </c>
       <c r="BY106" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="BZ106" t="n" s="10">
         <v>84.5</v>
@@ -40706,10 +40706,10 @@
         <v>87.6</v>
       </c>
       <c r="CG106" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>87.7</v>
@@ -40724,7 +40724,7 @@
         <v>91.9</v>
       </c>
       <c r="CM106" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="CN106" t="n" s="10">
         <v>88.8</v>
@@ -40739,109 +40739,109 @@
         <v>91.1</v>
       </c>
       <c r="CR106" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="CS106" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="CT106" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="CU106" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="CV106" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>92.8</v>
+        <v>92.0</v>
       </c>
       <c r="CX106" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="CY106" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="CZ106" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="DA106" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="DB106" t="n" s="10">
+        <v>92.9</v>
+      </c>
+      <c r="DC106" t="n" s="10">
         <v>92.8</v>
       </c>
-      <c r="DC106" t="n" s="10">
-        <v>92.7</v>
-      </c>
       <c r="DD106" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="DE106" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="DF106" t="n" s="10">
-        <v>93.6</v>
+        <v>93.8</v>
       </c>
       <c r="DG106" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="DH106" t="n" s="10">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="DI106" t="n" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="DJ106" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="DK106" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="DL106" t="n" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="DM106" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="DN106" t="n" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="DO106" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="DP106" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="DQ106" t="n" s="10">
         <v>97.9</v>
       </c>
-      <c r="DJ106" t="n" s="10">
-        <v>92.2</v>
-      </c>
-      <c r="DK106" t="n" s="10">
+      <c r="DR106" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="DS106" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="DT106" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="DU106" t="n" s="10">
         <v>95.3</v>
       </c>
-      <c r="DL106" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="DM106" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="DN106" t="n" s="10">
-        <v>96.9</v>
-      </c>
-      <c r="DO106" t="n" s="10">
-        <v>94.6</v>
-      </c>
-      <c r="DP106" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="DQ106" t="n" s="10">
-        <v>97.8</v>
-      </c>
-      <c r="DR106" t="n" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="DS106" t="n" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="DT106" t="n" s="10">
+      <c r="DV106" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="DW106" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="DX106" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="DY106" t="n" s="10">
         <v>96.7</v>
       </c>
-      <c r="DU106" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="DV106" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="DW106" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="DX106" t="n" s="10">
-        <v>97.1</v>
-      </c>
-      <c r="DY106" t="n" s="10">
-        <v>96.6</v>
-      </c>
       <c r="DZ106" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="EA106" t="n" s="10">
         <v>98.2</v>
@@ -40903,7 +40903,7 @@
         <v>87.3</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="R107" t="n" s="10">
         <v>87.7</v>
@@ -40930,7 +40930,7 @@
         <v>88.0</v>
       </c>
       <c r="Z107" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="AA107" t="n" s="10">
         <v>88.1</v>
@@ -40987,7 +40987,7 @@
         <v>87.6</v>
       </c>
       <c r="AS107" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="AT107" t="n" s="10">
         <v>87.7</v>
@@ -41038,7 +41038,7 @@
         <v>88.0</v>
       </c>
       <c r="BJ107" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="BK107" t="n" s="10">
         <v>87.5</v>
@@ -41047,7 +41047,7 @@
         <v>87.2</v>
       </c>
       <c r="BM107" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="BN107" t="n" s="10">
         <v>86.9</v>
@@ -41095,7 +41095,7 @@
         <v>87.0</v>
       </c>
       <c r="CC107" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="CD107" t="n" s="10">
         <v>87.2</v>
@@ -41146,7 +41146,7 @@
         <v>90.5</v>
       </c>
       <c r="CT107" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="CU107" t="n" s="10">
         <v>91.0</v>
@@ -41155,13 +41155,13 @@
         <v>91.2</v>
       </c>
       <c r="CW107" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="CX107" t="n" s="10">
         <v>91.6</v>
       </c>
       <c r="CY107" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="CZ107" t="n" s="10">
         <v>92.1</v>
@@ -41170,52 +41170,52 @@
         <v>92.3</v>
       </c>
       <c r="DB107" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DC107" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="DD107" t="n" s="10">
-        <v>92.9</v>
+        <v>93.1</v>
       </c>
       <c r="DE107" t="n" s="10">
-        <v>93.1</v>
+        <v>93.4</v>
       </c>
       <c r="DF107" t="n" s="10">
-        <v>93.4</v>
+        <v>93.7</v>
       </c>
       <c r="DG107" t="n" s="10">
-        <v>93.6</v>
+        <v>93.9</v>
       </c>
       <c r="DH107" t="n" s="10">
-        <v>93.9</v>
+        <v>94.3</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>94.1</v>
+        <v>94.6</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>94.4</v>
+        <v>94.8</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>94.7</v>
+        <v>95.1</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>95.0</v>
+        <v>95.3</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>95.3</v>
+        <v>95.6</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>95.6</v>
+        <v>95.8</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>95.8</v>
+        <v>96.0</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DR107" t="n" s="10">
         <v>96.5</v>
@@ -41224,7 +41224,7 @@
         <v>96.6</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DU107" t="n" s="10">
         <v>96.9</v>
@@ -42479,7 +42479,7 @@
         <v>93.5</v>
       </c>
       <c r="E112" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="F112" t="n" s="10">
         <v>93.3</v>
@@ -42500,7 +42500,7 @@
         <v>94.1</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="M112" t="n" s="10">
         <v>95.7</v>
@@ -42524,7 +42524,7 @@
         <v>95.5</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="U112" t="n" s="10">
         <v>96.9</v>
@@ -42596,7 +42596,7 @@
         <v>96.2</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>101.3</v>
@@ -42614,7 +42614,7 @@
         <v>100.7</v>
       </c>
       <c r="AX112" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="AY112" t="n" s="10">
         <v>103.5</v>
@@ -42623,10 +42623,10 @@
         <v>105.5</v>
       </c>
       <c r="BA112" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="BB112" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="BC112" t="n" s="10">
         <v>109.0</v>
@@ -42641,7 +42641,7 @@
         <v>102.8</v>
       </c>
       <c r="BG112" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="BH112" t="n" s="10">
         <v>99.7</v>
@@ -42671,7 +42671,7 @@
         <v>96.1</v>
       </c>
       <c r="BQ112" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="BR112" t="n" s="10">
         <v>94.7</v>
@@ -42680,7 +42680,7 @@
         <v>95.5</v>
       </c>
       <c r="BT112" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="BU112" t="n" s="10">
         <v>96.0</v>
@@ -42692,7 +42692,7 @@
         <v>98.6</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BY112" t="n" s="10">
         <v>104.2</v>
@@ -42704,7 +42704,7 @@
         <v>97.9</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="CC112" t="n" s="10">
         <v>101.2</v>
@@ -42722,7 +42722,7 @@
         <v>103.8</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>101.9</v>
@@ -42731,16 +42731,16 @@
         <v>102.8</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="CL112" t="n" s="10">
         <v>108.1</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="CN112" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="CO112" t="n" s="10">
         <v>102.2</v>
@@ -42749,10 +42749,10 @@
         <v>100.8</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="CR112" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="CS112" t="n" s="10">
         <v>101.7</v>
@@ -42764,10 +42764,10 @@
         <v>101.8</v>
       </c>
       <c r="CV112" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="CX112" t="n" s="10">
         <v>96.9</v>
@@ -42785,7 +42785,7 @@
         <v>99.3</v>
       </c>
       <c r="DC112" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="DD112" t="n" s="10">
         <v>99.5</v>
@@ -42803,7 +42803,7 @@
         <v>98.5</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DJ112" t="n" s="10">
         <v>101.0</v>
@@ -42824,7 +42824,7 @@
         <v>101.8</v>
       </c>
       <c r="DP112" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="DQ112" t="n" s="10">
         <v>103.0</v>
@@ -42904,10 +42904,10 @@
         <v>94.0</v>
       </c>
       <c r="M113" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="O113" t="n" s="10">
         <v>94.9</v>
@@ -42931,13 +42931,13 @@
         <v>96.9</v>
       </c>
       <c r="V113" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="W113" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="X113" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="Y113" t="n" s="10">
         <v>98.1</v>
@@ -42976,7 +42976,7 @@
         <v>100.2</v>
       </c>
       <c r="AK113" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AL113" t="n" s="10">
         <v>100.9</v>
@@ -43111,7 +43111,7 @@
         <v>101.6</v>
       </c>
       <c r="CD113" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="CE113" t="n" s="10">
         <v>102.4</v>
@@ -43123,7 +43123,7 @@
         <v>102.8</v>
       </c>
       <c r="CH113" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="CI113" t="n" s="10">
         <v>102.8</v>
@@ -43168,7 +43168,7 @@
         <v>101.3</v>
       </c>
       <c r="CW113" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CX113" t="n" s="10">
         <v>100.9</v>
@@ -43261,7 +43261,7 @@
         <v>100.0</v>
       </c>
       <c r="EB113" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="EC113" t="n" s="10">
         <v>100.0</v>
@@ -44511,7 +44511,7 @@
         <v>87.5</v>
       </c>
       <c r="M117" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="N117" t="n" s="10">
         <v>88.9</v>
@@ -44550,7 +44550,7 @@
         <v>91.1</v>
       </c>
       <c r="Z117" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="AA117" t="n" s="10">
         <v>92.6</v>
@@ -44622,7 +44622,7 @@
         <v>91.9</v>
       </c>
       <c r="AX117" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="AY117" t="n" s="10">
         <v>94.8</v>
@@ -44655,7 +44655,7 @@
         <v>91.8</v>
       </c>
       <c r="BI117" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="BJ117" t="n" s="10">
         <v>93.1</v>
@@ -44712,7 +44712,7 @@
         <v>92.1</v>
       </c>
       <c r="CB117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CC117" t="n" s="10">
         <v>95.0</v>
@@ -44760,19 +44760,19 @@
         <v>93.3</v>
       </c>
       <c r="CR117" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="CS117" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="CT117" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="CU117" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="CV117" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="CW117" t="n" s="10">
         <v>102.8</v>
@@ -44790,10 +44790,10 @@
         <v>97.0</v>
       </c>
       <c r="DB117" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DC117" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="DD117" t="n" s="10">
         <v>97.1</v>
@@ -44859,7 +44859,7 @@
         <v>97.4</v>
       </c>
       <c r="DY117" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DZ117" t="n" s="10">
         <v>104.0</v>
@@ -44933,7 +44933,7 @@
         <v>89.4</v>
       </c>
       <c r="T118" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="U118" t="n" s="10">
         <v>89.6</v>
@@ -45077,7 +45077,7 @@
         <v>90.8</v>
       </c>
       <c r="BP118" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="BQ118" t="n" s="10">
         <v>90.7</v>
@@ -45143,10 +45143,10 @@
         <v>96.8</v>
       </c>
       <c r="CL118" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CM118" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CN118" t="n" s="10">
         <v>96.8</v>
@@ -45158,7 +45158,7 @@
         <v>96.9</v>
       </c>
       <c r="CQ118" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="CR118" t="n" s="10">
         <v>97.3</v>
@@ -45194,13 +45194,13 @@
         <v>97.3</v>
       </c>
       <c r="DC118" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DD118" t="n" s="10">
         <v>97.0</v>
       </c>
       <c r="DE118" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DF118" t="n" s="10">
         <v>97.0</v>
@@ -45926,10 +45926,10 @@
         <v>99.5</v>
       </c>
       <c r="CC121" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="CD121" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="CE121" t="n" s="10">
         <v>98.6</v>
@@ -45941,7 +45941,7 @@
         <v>107.0</v>
       </c>
       <c r="CH121" t="n" s="10">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
       <c r="CI121" t="n" s="10">
         <v>87.7</v>
@@ -45977,7 +45977,7 @@
         <v>110.1</v>
       </c>
       <c r="CT121" t="n" s="10">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="CU121" t="n" s="10">
         <v>87.9</v>
@@ -46013,7 +46013,7 @@
         <v>109.2</v>
       </c>
       <c r="DF121" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="DG121" t="n" s="10">
         <v>86.8</v>
@@ -46049,7 +46049,7 @@
         <v>106.8</v>
       </c>
       <c r="DR121" t="n" s="10">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="DS121" t="n" s="10">
         <v>85.4</v>
@@ -46073,7 +46073,7 @@
         <v>96.1</v>
       </c>
       <c r="DZ121" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="EA121" t="n" s="10">
         <v>95.5</v>
@@ -46082,10 +46082,10 @@
         <v>105.2</v>
       </c>
       <c r="EC121" t="n" s="10">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="ED121" t="n" s="10">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="122">
@@ -46315,13 +46315,13 @@
         <v>96.3</v>
       </c>
       <c r="BY122" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BZ122" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="CA122" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="CB122" t="n" s="10">
         <v>102.6</v>
@@ -46339,13 +46339,13 @@
         <v>100.8</v>
       </c>
       <c r="CG122" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CH122" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="CI122" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="CJ122" t="n" s="10">
         <v>102.4</v>
@@ -46354,7 +46354,7 @@
         <v>100.4</v>
       </c>
       <c r="CL122" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="CM122" t="n" s="10">
         <v>100.7</v>
@@ -46366,7 +46366,7 @@
         <v>102.8</v>
       </c>
       <c r="CP122" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="CQ122" t="n" s="10">
         <v>102.7</v>
@@ -46375,10 +46375,10 @@
         <v>103.8</v>
       </c>
       <c r="CS122" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CT122" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="CU122" t="n" s="10">
         <v>101.4</v>
@@ -46411,10 +46411,10 @@
         <v>102.6</v>
       </c>
       <c r="DE122" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="DF122" t="n" s="10">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="DG122" t="n" s="10">
         <v>100.1</v>
@@ -46438,16 +46438,16 @@
         <v>100.1</v>
       </c>
       <c r="DN122" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DO122" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="DP122" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="DQ122" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="DR122" t="n" s="10">
         <v>96.2</v>
@@ -46474,7 +46474,7 @@
         <v>96.1</v>
       </c>
       <c r="DZ122" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="EA122" t="n" s="10">
         <v>97.9</v>
@@ -46486,7 +46486,7 @@
         <v>99.4</v>
       </c>
       <c r="ED122" t="n" s="10">
-        <v>97.2</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="123">
@@ -46494,16 +46494,16 @@
         <v>35</v>
       </c>
       <c r="C123" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D123" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="E123" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="F123" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="G123" t="n" s="10">
         <v>105.3</v>
@@ -46524,10 +46524,10 @@
         <v>106.1</v>
       </c>
       <c r="M123" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="N123" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="O123" t="n" s="10">
         <v>104.9</v>
@@ -46536,16 +46536,16 @@
         <v>104.1</v>
       </c>
       <c r="Q123" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="R123" t="n" s="10">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="S123" t="n" s="10">
         <v>104.3</v>
       </c>
       <c r="T123" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="U123" t="n" s="10">
         <v>105.3</v>
@@ -46563,7 +46563,7 @@
         <v>102.3</v>
       </c>
       <c r="Z123" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AA123" t="n" s="10">
         <v>105.7</v>
@@ -46572,19 +46572,19 @@
         <v>104.9</v>
       </c>
       <c r="AC123" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AD123" t="n" s="10">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="AE123" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AF123" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="AG123" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AH123" t="n" s="10">
         <v>107.3</v>
@@ -46611,31 +46611,31 @@
         <v>108.1</v>
       </c>
       <c r="AP123" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="AQ123" t="n" s="10">
         <v>102.0</v>
       </c>
       <c r="AR123" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AS123" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AT123" t="n" s="10">
         <v>103.7</v>
       </c>
       <c r="AU123" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AV123" t="n" s="10">
         <v>103.2</v>
       </c>
       <c r="AW123" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AX123" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AY123" t="n" s="10">
         <v>105.4</v>
@@ -46644,22 +46644,22 @@
         <v>106.7</v>
       </c>
       <c r="BA123" t="n" s="10">
-        <v>105.1</v>
+        <v>105.3</v>
       </c>
       <c r="BB123" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="BC123" t="n" s="10">
         <v>106.4</v>
       </c>
       <c r="BD123" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="BE123" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="BF123" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="BG123" t="n" s="10">
         <v>102.0</v>
@@ -46668,7 +46668,7 @@
         <v>101.9</v>
       </c>
       <c r="BI123" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="BJ123" t="n" s="10">
         <v>101.5</v>
@@ -46677,7 +46677,7 @@
         <v>100.9</v>
       </c>
       <c r="BL123" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="BM123" t="n" s="10">
         <v>96.1</v>
@@ -46689,7 +46689,7 @@
         <v>96.9</v>
       </c>
       <c r="BP123" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="BQ123" t="n" s="10">
         <v>96.9</v>
@@ -46701,10 +46701,10 @@
         <v>97.4</v>
       </c>
       <c r="BT123" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BU123" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="BV123" t="n" s="10">
         <v>97.9</v>
@@ -46722,28 +46722,28 @@
         <v>97.1</v>
       </c>
       <c r="CA123" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CB123" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CC123" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="CD123" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="CE123" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="CF123" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="CG123" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="CH123" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CI123" t="n" s="10">
         <v>101.6</v>
@@ -46758,7 +46758,7 @@
         <v>104.3</v>
       </c>
       <c r="CM123" t="n" s="10">
-        <v>101.0</v>
+        <v>100.8</v>
       </c>
       <c r="CN123" t="n" s="10">
         <v>100.5</v>
@@ -46767,16 +46767,16 @@
         <v>102.5</v>
       </c>
       <c r="CP123" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CQ123" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="CR123" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="CS123" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="CT123" t="n" s="10">
         <v>104.3</v>
@@ -46785,7 +46785,7 @@
         <v>102.3</v>
       </c>
       <c r="CV123" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="CW123" t="n" s="10">
         <v>106.1</v>
@@ -46797,7 +46797,7 @@
         <v>101.8</v>
       </c>
       <c r="CZ123" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="DA123" t="n" s="10">
         <v>101.6</v>
@@ -46806,7 +46806,7 @@
         <v>103.4</v>
       </c>
       <c r="DC123" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="DD123" t="n" s="10">
         <v>101.9</v>
@@ -46815,19 +46815,19 @@
         <v>101.2</v>
       </c>
       <c r="DF123" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="DG123" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="DH123" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="DI123" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="DJ123" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DK123" t="n" s="10">
         <v>101.3</v>
@@ -46836,16 +46836,16 @@
         <v>99.9</v>
       </c>
       <c r="DM123" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="DN123" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DO123" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="DP123" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DQ123" t="n" s="10">
         <v>100.0</v>
@@ -46857,19 +46857,19 @@
         <v>98.1</v>
       </c>
       <c r="DT123" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="DU123" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="DV123" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="DW123" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DX123" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="DY123" t="n" s="10">
         <v>97.2</v>
@@ -46878,16 +46878,16 @@
         <v>99.3</v>
       </c>
       <c r="EA123" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="EB123" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="EC123" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="ED123" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="124">
@@ -46904,7 +46904,7 @@
         <v>106.1</v>
       </c>
       <c r="F124" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="G124" t="n" s="10">
         <v>106.4</v>
@@ -46919,7 +46919,7 @@
         <v>106.1</v>
       </c>
       <c r="K124" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="L124" t="n" s="10">
         <v>105.6</v>
@@ -46946,7 +46946,7 @@
         <v>104.3</v>
       </c>
       <c r="T124" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="U124" t="n" s="10">
         <v>104.2</v>
@@ -47000,10 +47000,10 @@
         <v>107.2</v>
       </c>
       <c r="AL124" t="n" s="10">
-        <v>106.9</v>
+        <v>107.0</v>
       </c>
       <c r="AM124" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AN124" t="n" s="10">
         <v>106.2</v>
@@ -47012,7 +47012,7 @@
         <v>105.8</v>
       </c>
       <c r="AP124" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AQ124" t="n" s="10">
         <v>104.9</v>
@@ -47027,7 +47027,7 @@
         <v>104.2</v>
       </c>
       <c r="AU124" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="AV124" t="n" s="10">
         <v>104.0</v>
@@ -47045,7 +47045,7 @@
         <v>104.4</v>
       </c>
       <c r="BA124" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="BB124" t="n" s="10">
         <v>104.2</v>
@@ -47123,10 +47123,10 @@
         <v>98.8</v>
       </c>
       <c r="CA124" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="CB124" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="CC124" t="n" s="10">
         <v>99.6</v>
@@ -47135,13 +47135,13 @@
         <v>99.8</v>
       </c>
       <c r="CE124" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="CF124" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="CG124" t="n" s="10">
         <v>100.2</v>
-      </c>
-      <c r="CG124" t="n" s="10">
-        <v>100.3</v>
       </c>
       <c r="CH124" t="n" s="10">
         <v>100.4</v>
@@ -47177,7 +47177,7 @@
         <v>102.8</v>
       </c>
       <c r="CS124" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="CT124" t="n" s="10">
         <v>102.9</v>
@@ -47213,7 +47213,7 @@
         <v>101.9</v>
       </c>
       <c r="DE124" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="DF124" t="n" s="10">
         <v>101.4</v>
@@ -47222,7 +47222,7 @@
         <v>101.0</v>
       </c>
       <c r="DH124" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="DI124" t="n" s="10">
         <v>100.3</v>
@@ -47237,19 +47237,19 @@
         <v>99.7</v>
       </c>
       <c r="DM124" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="DN124" t="n" s="10">
         <v>99.5</v>
-      </c>
-      <c r="DN124" t="n" s="10">
-        <v>99.4</v>
       </c>
       <c r="DO124" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="DP124" t="n" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="DQ124" t="n" s="10">
         <v>99.2</v>
-      </c>
-      <c r="DQ124" t="n" s="10">
-        <v>99.1</v>
       </c>
       <c r="DR124" t="n" s="10">
         <v>99.0</v>
@@ -47264,7 +47264,7 @@
         <v>98.5</v>
       </c>
       <c r="DV124" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DW124" t="n" s="10">
         <v>98.2</v>
@@ -47934,10 +47934,10 @@
         <v>95.7</v>
       </c>
       <c r="CC126" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="CD126" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="CE126" t="n" s="10">
         <v>94.9</v>
@@ -47949,7 +47949,7 @@
         <v>103.2</v>
       </c>
       <c r="CH126" t="n" s="10">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="CI126" t="n" s="10">
         <v>84.6</v>
@@ -47985,7 +47985,7 @@
         <v>107.0</v>
       </c>
       <c r="CT126" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="CU126" t="n" s="10">
         <v>85.7</v>
@@ -48021,7 +48021,7 @@
         <v>107.3</v>
       </c>
       <c r="DF126" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="DG126" t="n" s="10">
         <v>85.3</v>
@@ -48057,7 +48057,7 @@
         <v>105.7</v>
       </c>
       <c r="DR126" t="n" s="10">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="DS126" t="n" s="10">
         <v>84.4</v>
@@ -48081,7 +48081,7 @@
         <v>95.5</v>
       </c>
       <c r="DZ126" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="EA126" t="n" s="10">
         <v>94.7</v>
@@ -48090,10 +48090,10 @@
         <v>104.2</v>
       </c>
       <c r="EC126" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="ED126" t="n" s="10">
-        <v>101.8</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="127">
@@ -48323,13 +48323,13 @@
         <v>92.7</v>
       </c>
       <c r="BY127" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="BZ127" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="CA127" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="CB127" t="n" s="10">
         <v>98.6</v>
@@ -48347,13 +48347,13 @@
         <v>97.2</v>
       </c>
       <c r="CG127" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="CH127" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="CI127" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="CJ127" t="n" s="10">
         <v>99.3</v>
@@ -48362,7 +48362,7 @@
         <v>97.3</v>
       </c>
       <c r="CL127" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="CM127" t="n" s="10">
         <v>97.3</v>
@@ -48374,7 +48374,7 @@
         <v>99.4</v>
       </c>
       <c r="CP127" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="CQ127" t="n" s="10">
         <v>99.8</v>
@@ -48383,10 +48383,10 @@
         <v>100.9</v>
       </c>
       <c r="CS127" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="CT127" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="CU127" t="n" s="10">
         <v>99.0</v>
@@ -48419,10 +48419,10 @@
         <v>100.8</v>
       </c>
       <c r="DE127" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="DF127" t="n" s="10">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="DG127" t="n" s="10">
         <v>98.5</v>
@@ -48446,16 +48446,16 @@
         <v>99.3</v>
       </c>
       <c r="DN127" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DO127" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="DP127" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DQ127" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DR127" t="n" s="10">
         <v>95.2</v>
@@ -48482,7 +48482,7 @@
         <v>95.6</v>
       </c>
       <c r="DZ127" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="EA127" t="n" s="10">
         <v>97.2</v>
@@ -48494,7 +48494,7 @@
         <v>98.7</v>
       </c>
       <c r="ED127" t="n" s="10">
-        <v>96.6</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="128">
@@ -48508,7 +48508,7 @@
         <v>98.2</v>
       </c>
       <c r="E128" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="F128" t="n" s="10">
         <v>98.0</v>
@@ -48532,10 +48532,10 @@
         <v>97.5</v>
       </c>
       <c r="M128" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="N128" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="O128" t="n" s="10">
         <v>96.6</v>
@@ -48544,16 +48544,16 @@
         <v>95.9</v>
       </c>
       <c r="Q128" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="R128" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="S128" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="T128" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="U128" t="n" s="10">
         <v>96.9</v>
@@ -48562,7 +48562,7 @@
         <v>96.6</v>
       </c>
       <c r="W128" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="X128" t="n" s="10">
         <v>96.1</v>
@@ -48580,19 +48580,19 @@
         <v>96.9</v>
       </c>
       <c r="AC128" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="AD128" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="AE128" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="AF128" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="AG128" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="AH128" t="n" s="10">
         <v>98.8</v>
@@ -48631,10 +48631,10 @@
         <v>95.2</v>
       </c>
       <c r="AT128" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="AU128" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AV128" t="n" s="10">
         <v>94.7</v>
@@ -48646,37 +48646,37 @@
         <v>96.2</v>
       </c>
       <c r="AY128" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="AZ128" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="BA128" t="n" s="10">
-        <v>97.4</v>
+        <v>97.6</v>
       </c>
       <c r="BB128" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BC128" t="n" s="10">
         <v>98.6</v>
       </c>
       <c r="BD128" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="BE128" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="BF128" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="BG128" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="BH128" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="BI128" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="BJ128" t="n" s="10">
         <v>95.2</v>
@@ -48709,7 +48709,7 @@
         <v>93.7</v>
       </c>
       <c r="BT128" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="BU128" t="n" s="10">
         <v>92.6</v>
@@ -48727,28 +48727,28 @@
         <v>96.1</v>
       </c>
       <c r="BZ128" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="CA128" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="CB128" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="CC128" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CD128" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="CE128" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="CF128" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="CG128" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CH128" t="n" s="10">
         <v>94.1</v>
@@ -48760,19 +48760,19 @@
         <v>99.0</v>
       </c>
       <c r="CK128" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="CL128" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="CM128" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="CN128" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="CO128" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="CP128" t="n" s="10">
         <v>98.6</v>
@@ -48781,22 +48781,22 @@
         <v>99.5</v>
       </c>
       <c r="CR128" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CS128" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="CT128" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="CU128" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="CV128" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="CW128" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="CX128" t="n" s="10">
         <v>98.7</v>
@@ -48817,13 +48817,13 @@
         <v>101.2</v>
       </c>
       <c r="DD128" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DE128" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DF128" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DG128" t="n" s="10">
         <v>99.5</v>
@@ -48832,16 +48832,16 @@
         <v>98.5</v>
       </c>
       <c r="DI128" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DJ128" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="DK128" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DL128" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DM128" t="n" s="10">
         <v>99.6</v>
@@ -48871,16 +48871,16 @@
         <v>99.3</v>
       </c>
       <c r="DV128" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="DW128" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DX128" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DY128" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DZ128" t="n" s="10">
         <v>98.6</v>
@@ -48892,7 +48892,7 @@
         <v>98.3</v>
       </c>
       <c r="EC128" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="ED128" t="n" s="10">
         <v>98.6</v>
@@ -48924,7 +48924,7 @@
         <v>97.6</v>
       </c>
       <c r="J129" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="K129" t="n" s="10">
         <v>97.2</v>
@@ -48936,7 +48936,7 @@
         <v>96.8</v>
       </c>
       <c r="N129" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="O129" t="n" s="10">
         <v>96.4</v>
@@ -48957,7 +48957,7 @@
         <v>96.0</v>
       </c>
       <c r="U129" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="V129" t="n" s="10">
         <v>95.9</v>
@@ -48975,10 +48975,10 @@
         <v>96.2</v>
       </c>
       <c r="AA129" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="AB129" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="AC129" t="n" s="10">
         <v>97.2</v>
@@ -49020,19 +49020,19 @@
         <v>96.7</v>
       </c>
       <c r="AP129" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AQ129" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="AR129" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="AS129" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="AT129" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AU129" t="n" s="10">
         <v>95.4</v>
@@ -49083,7 +49083,7 @@
         <v>94.6</v>
       </c>
       <c r="BK129" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="BL129" t="n" s="10">
         <v>94.1</v>
@@ -49137,37 +49137,37 @@
         <v>95.6</v>
       </c>
       <c r="CC129" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="CD129" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="CE129" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CF129" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="CG129" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="CH129" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="CI129" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="CJ129" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="CK129" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="CL129" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="CM129" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="CN129" t="n" s="10">
         <v>98.7</v>
@@ -49185,7 +49185,7 @@
         <v>100.0</v>
       </c>
       <c r="CS129" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="CT129" t="n" s="10">
         <v>100.3</v>
@@ -49194,13 +49194,13 @@
         <v>100.4</v>
       </c>
       <c r="CV129" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CW129" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="CX129" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="CY129" t="n" s="10">
         <v>100.7</v>
@@ -49218,7 +49218,7 @@
         <v>100.4</v>
       </c>
       <c r="DD129" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="DE129" t="n" s="10">
         <v>100.0</v>
@@ -49284,7 +49284,7 @@
         <v>97.6</v>
       </c>
       <c r="DZ129" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="EA129" t="n" s="10">
         <v>97.9</v>
@@ -49293,7 +49293,7 @@
         <v>98.1</v>
       </c>
       <c r="EC129" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="ED129" t="n" s="10">
         <v>98.6</v>
@@ -50521,7 +50521,7 @@
         <v>75.8</v>
       </c>
       <c r="E134" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="F134" t="n" s="10">
         <v>77.8</v>
@@ -50551,13 +50551,13 @@
         <v>82.3</v>
       </c>
       <c r="O134" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="P134" t="n" s="10">
         <v>82.0</v>
       </c>
       <c r="Q134" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="R134" t="n" s="10">
         <v>80.6</v>
@@ -50659,7 +50659,7 @@
         <v>87.1</v>
       </c>
       <c r="AY134" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="AZ134" t="n" s="10">
         <v>89.8</v>
@@ -51153,7 +51153,7 @@
         <v>93.1</v>
       </c>
       <c r="CD135" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="CE135" t="n" s="10">
         <v>92.8</v>
@@ -51237,7 +51237,7 @@
         <v>91.4</v>
       </c>
       <c r="DF135" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DG135" t="n" s="10">
         <v>91.4</v>
@@ -52523,64 +52523,64 @@
         <v>35</v>
       </c>
       <c r="C139" t="n" s="10">
-        <v>67.4</v>
+        <v>67.5</v>
       </c>
       <c r="D139" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="E139" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="F139" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="G139" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="H139" t="n" s="10">
+        <v>72.4</v>
+      </c>
+      <c r="I139" t="n" s="10">
         <v>72.3</v>
       </c>
-      <c r="I139" t="n" s="10">
-        <v>72.2</v>
-      </c>
       <c r="J139" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="K139" t="n" s="10">
-        <v>71.9</v>
+        <v>72.1</v>
       </c>
       <c r="L139" t="n" s="10">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="M139" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="N139" t="n" s="10">
-        <v>75.1</v>
+        <v>73.8</v>
       </c>
       <c r="O139" t="n" s="10">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="P139" t="n" s="10">
-        <v>74.8</v>
+        <v>75.0</v>
       </c>
       <c r="Q139" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="R139" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="S139" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="T139" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="U139" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="V139" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="W139" t="n" s="10">
         <v>76.2</v>
@@ -52592,7 +52592,7 @@
         <v>75.9</v>
       </c>
       <c r="Z139" t="n" s="10">
-        <v>75.9</v>
+        <v>75.4</v>
       </c>
       <c r="AA139" t="n" s="10">
         <v>76.7</v>
@@ -52601,7 +52601,7 @@
         <v>76.3</v>
       </c>
       <c r="AC139" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="AD139" t="n" s="10">
         <v>77.4</v>
@@ -52673,7 +52673,7 @@
         <v>81.3</v>
       </c>
       <c r="BA139" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="BB139" t="n" s="10">
         <v>80.1</v>
@@ -52745,7 +52745,7 @@
         <v>85.0</v>
       </c>
       <c r="BY139" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="BZ139" t="n" s="10">
         <v>84.8</v>
@@ -52793,7 +52793,7 @@
         <v>85.5</v>
       </c>
       <c r="CO139" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="CP139" t="n" s="10">
         <v>86.8</v>
@@ -52844,7 +52844,7 @@
         <v>86.6</v>
       </c>
       <c r="DF139" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="DG139" t="n" s="10">
         <v>87.4</v>
@@ -52904,7 +52904,7 @@
         <v>95.7</v>
       </c>
       <c r="DZ139" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="EA139" t="n" s="10">
         <v>96.5</v>
@@ -52924,61 +52924,61 @@
         <v>36</v>
       </c>
       <c r="C140" t="n" s="10">
+        <v>71.3</v>
+      </c>
+      <c r="D140" t="n" s="10">
         <v>71.2</v>
       </c>
-      <c r="D140" t="n" s="10">
-        <v>71.1</v>
-      </c>
       <c r="E140" t="n" s="10">
-        <v>71.1</v>
+        <v>71.3</v>
       </c>
       <c r="F140" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="G140" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="H140" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="I140" t="n" s="10">
-        <v>71.7</v>
+        <v>71.9</v>
       </c>
       <c r="J140" t="n" s="10">
-        <v>71.9</v>
+        <v>72.1</v>
       </c>
       <c r="K140" t="n" s="10">
-        <v>72.2</v>
+        <v>72.4</v>
       </c>
       <c r="L140" t="n" s="10">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="M140" t="n" s="10">
-        <v>72.9</v>
+        <v>73.1</v>
       </c>
       <c r="N140" t="n" s="10">
-        <v>73.2</v>
+        <v>73.4</v>
       </c>
       <c r="O140" t="n" s="10">
-        <v>73.5</v>
+        <v>73.8</v>
       </c>
       <c r="P140" t="n" s="10">
-        <v>73.9</v>
+        <v>74.1</v>
       </c>
       <c r="Q140" t="n" s="10">
-        <v>74.1</v>
+        <v>74.3</v>
       </c>
       <c r="R140" t="n" s="10">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="S140" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="T140" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="U140" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="V140" t="n" s="10">
         <v>75.5</v>
@@ -52990,7 +52990,7 @@
         <v>75.9</v>
       </c>
       <c r="Y140" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="Z140" t="n" s="10">
         <v>76.2</v>
@@ -53191,7 +53191,7 @@
         <v>85.8</v>
       </c>
       <c r="CN140" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CO140" t="n" s="10">
         <v>86.2</v>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:04:48&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:41:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>